--- a/DDAf_2024_Tableau_annexe_Tab36.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab36.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDD21318-B2C5-4F90-A7FE-FF08855F8B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1630184-D8BE-4B17-8E2F-9F422CF8B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{457E3B0A-CC40-4C31-94A7-2C92C569A1F0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC972BF0-9067-4DFF-9314-97958CAAA918}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
@@ -1578,7 +1578,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05375141-BB14-4F88-A170-0048F20E7166}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247781EF-5402-4E15-AD2A-4FF67A36683B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1586,15 +1586,15 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="77" bestFit="1" customWidth="1"/>
-    <col min="4" max="71" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="4" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1668,7 +1668,7 @@
       <c r="BR1" s="4"/>
       <c r="BS1" s="5"/>
     </row>
-    <row r="2" spans="1:71" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:71" ht="124.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>72</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>75</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>77</v>
       </c>
@@ -2528,7 +2528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>79</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>81</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>83</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>85</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>87</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>89</v>
       </c>
@@ -3818,7 +3818,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>91</v>
       </c>
@@ -4033,7 +4033,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="13" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="28" t="s">
         <v>93</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="14" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>95</v>
       </c>
@@ -4463,7 +4463,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>97</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>4.2350000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>99</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>101</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>103</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>105</v>
       </c>
@@ -5538,7 +5538,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>107</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>109</v>
       </c>
@@ -5968,7 +5968,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>111</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="28" t="s">
         <v>93</v>
       </c>
@@ -6398,7 +6398,7 @@
         <v>4.2350000000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>114</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>116</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>118</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>120</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>122</v>
       </c>
@@ -7473,7 +7473,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>124</v>
       </c>
@@ -7688,7 +7688,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>126</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>128</v>
       </c>
@@ -8118,7 +8118,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>130</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>132</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>134</v>
       </c>
@@ -8763,7 +8763,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>136</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>138</v>
       </c>
@@ -9193,7 +9193,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>140</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="28" t="s">
         <v>93</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>143</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>145</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>13.436</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>147</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>149</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>151</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="44" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>153</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="45" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="28" t="s">
         <v>93</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>13.606</v>
       </c>
     </row>
-    <row r="46" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>156</v>
       </c>
@@ -11343,7 +11343,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>158</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>160</v>
       </c>
@@ -11773,7 +11773,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>162</v>
       </c>
@@ -11988,7 +11988,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>164</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>166</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>168</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>170</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>1.1779999999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>172</v>
       </c>
@@ -13063,7 +13063,7 @@
         <v>35.171999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>174</v>
       </c>
@@ -13278,7 +13278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>176</v>
       </c>
@@ -13493,7 +13493,7 @@
         <v>2.5630000000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>178</v>
       </c>
@@ -13708,7 +13708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>180</v>
       </c>
@@ -13923,7 +13923,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>182</v>
       </c>
@@ -14138,7 +14138,7 @@
         <v>1.526</v>
       </c>
     </row>
-    <row r="60" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
         <v>184</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="28" t="s">
         <v>93</v>
       </c>
@@ -14568,7 +14568,7 @@
         <v>40.475000000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="46" t="s">
         <v>93</v>
       </c>
@@ -14783,7 +14783,7 @@
         <v>60.308</v>
       </c>
     </row>
-    <row r="63" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="46" t="s">
         <v>93</v>
       </c>
@@ -14998,7 +14998,7 @@
         <v>826.80600000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A64" s="55" t="s">
         <v>93</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>325.10899999999998</v>
       </c>
     </row>
-    <row r="65" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A65" s="55" t="s">
         <v>93</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>132.15600000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="55" t="s">
         <v>93</v>
       </c>
@@ -15643,7 +15643,7 @@
         <v>887.11400000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A67" s="55" t="s">
         <v>93</v>
       </c>
@@ -15858,7 +15858,7 @@
         <v>15.598000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A68" s="55" t="s">
         <v>93</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>18.873000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A69" s="55" t="s">
         <v>93</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A70" s="55" t="s">
         <v>93</v>
       </c>
@@ -16503,7 +16503,7 @@
         <v>4.2350000000000003</v>
       </c>
     </row>
-    <row r="71" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A71" s="55" t="s">
         <v>93</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>40.475000000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A72" s="55" t="s">
         <v>93</v>
       </c>
@@ -16933,7 +16933,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A73" s="55" t="s">
         <v>93</v>
       </c>
@@ -17148,7 +17148,7 @@
         <v>1.992</v>
       </c>
     </row>
-    <row r="74" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A74" s="55" t="s">
         <v>93</v>
       </c>
@@ -17363,7 +17363,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="75" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="55" t="s">
         <v>93</v>
       </c>
@@ -17578,7 +17578,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="76" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A76" s="55" t="s">
         <v>93</v>
       </c>
@@ -17793,7 +17793,7 @@
         <v>12.662000000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A77" s="55" t="s">
         <v>93</v>
       </c>
@@ -18008,7 +18008,7 @@
         <v>245.667</v>
       </c>
     </row>
-    <row r="78" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A78" s="55" t="s">
         <v>93</v>
       </c>
@@ -18223,7 +18223,7 @@
         <v>297.24900000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="55" t="s">
         <v>93</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>423.976</v>
       </c>
     </row>
-    <row r="80" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A80" s="55" t="s">
         <v>93</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A81" s="55" t="s">
         <v>93</v>
       </c>
@@ -18868,7 +18868,7 @@
         <v>138.81100000000001</v>
       </c>
     </row>
-    <row r="82" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A82" s="55" t="s">
         <v>93</v>
       </c>
@@ -19083,7 +19083,7 @@
         <v>60.271999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="55" t="s">
         <v>93</v>
       </c>
@@ -19298,7 +19298,7 @@
         <v>687.995</v>
       </c>
     </row>
-    <row r="84" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A84" s="55" t="s">
         <v>93</v>
       </c>
@@ -19513,7 +19513,7 @@
         <v>40.439</v>
       </c>
     </row>
-    <row r="85" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A85" s="55" t="s">
         <v>93</v>
       </c>
@@ -19728,7 +19728,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A86" s="55" t="s">
         <v>93</v>
       </c>
@@ -19943,7 +19943,7 @@
         <v>19.869</v>
       </c>
     </row>
-    <row r="87" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A87" s="55" t="s">
         <v>93</v>
       </c>
@@ -20158,7 +20158,7 @@
         <v>95.418999999999997</v>
       </c>
     </row>
-    <row r="88" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A88" s="55" t="s">
         <v>93</v>
       </c>
@@ -20373,7 +20373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A89" s="55" t="s">
         <v>93</v>
       </c>
@@ -20588,7 +20588,7 @@
         <v>337.72500000000002</v>
       </c>
     </row>
-    <row r="90" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="55" t="s">
         <v>93</v>
       </c>
@@ -20803,7 +20803,7 @@
         <v>393.66199999999998</v>
       </c>
     </row>
-    <row r="91" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A91" s="55" t="s">
         <v>93</v>
       </c>
@@ -21018,7 +21018,7 @@
         <v>40.439</v>
       </c>
     </row>
-    <row r="92" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A92" s="55" t="s">
         <v>93</v>
       </c>
@@ -21233,7 +21233,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A93" s="55" t="s">
         <v>93</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>1.214</v>
       </c>
     </row>
-    <row r="94" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A94" s="55" t="s">
         <v>93</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>21.385000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A95" s="55" t="s">
         <v>93</v>
       </c>
@@ -21878,7 +21878,7 @@
         <v>4.5549999999999997</v>
       </c>
     </row>
-    <row r="96" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="55" t="s">
         <v>93</v>
       </c>
@@ -22093,7 +22093,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A97" s="55" t="s">
         <v>93</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>46.665999999999997</v>
       </c>
     </row>
-    <row r="98" spans="1:71" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:71" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="55" t="s">
         <v>93</v>
       </c>
@@ -22523,7 +22523,7 @@
         <v>94.358000000000004</v>
       </c>
     </row>
-    <row r="99" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A99" s="72"/>
       <c r="B99" s="73"/>
       <c r="C99" s="53"/>
@@ -22596,7 +22596,7 @@
       <c r="BR99" s="53"/>
       <c r="BS99" s="53"/>
     </row>
-    <row r="100" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>222</v>
       </c>
@@ -22670,7 +22670,7 @@
       <c r="BR100" s="74"/>
       <c r="BS100" s="74"/>
     </row>
-    <row r="101" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>223</v>
       </c>
@@ -22744,7 +22744,7 @@
       <c r="BR101" s="74"/>
       <c r="BS101" s="74"/>
     </row>
-    <row r="102" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>224</v>
       </c>
@@ -22818,7 +22818,7 @@
       <c r="BR102" s="74"/>
       <c r="BS102" s="74"/>
     </row>
-    <row r="103" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>225</v>
       </c>
@@ -22892,7 +22892,7 @@
       <c r="BR103" s="74"/>
       <c r="BS103" s="74"/>
     </row>
-    <row r="104" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>226</v>
       </c>
@@ -22966,7 +22966,7 @@
       <c r="BR104" s="74"/>
       <c r="BS104" s="74"/>
     </row>
-    <row r="105" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:71" x14ac:dyDescent="0.25">
       <c r="C105" s="74"/>
       <c r="D105" s="74"/>
       <c r="E105" s="74"/>
@@ -23037,7 +23037,7 @@
       <c r="BR105" s="74"/>
       <c r="BS105" s="74"/>
     </row>
-    <row r="106" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
@@ -23109,7 +23109,7 @@
       <c r="BR106" s="74"/>
       <c r="BS106" s="74"/>
     </row>
-    <row r="107" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="76" t="s">
         <v>227</v>
       </c>
@@ -23183,7 +23183,7 @@
       <c r="BR107" s="74"/>
       <c r="BS107" s="74"/>
     </row>
-    <row r="108" spans="1:71" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="76"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
@@ -23255,7 +23255,7 @@
       <c r="BR108" s="74"/>
       <c r="BS108" s="74"/>
     </row>
-    <row r="109" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>229</v>
       </c>
@@ -23329,7 +23329,7 @@
       <c r="BR109" s="74"/>
       <c r="BS109" s="74"/>
     </row>
-    <row r="110" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>230</v>
       </c>
@@ -23403,7 +23403,7 @@
       <c r="BR110" s="74"/>
       <c r="BS110" s="74"/>
     </row>
-    <row r="111" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B111" s="78" t="s">
         <v>231</v>
       </c>
@@ -23477,7 +23477,7 @@
       <c r="BR111" s="74"/>
       <c r="BS111" s="74"/>
     </row>
-    <row r="112" spans="1:71" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>228</v>
       </c>
@@ -23551,7 +23551,7 @@
       <c r="BR112" s="74"/>
       <c r="BS112" s="74"/>
     </row>
-    <row r="113" spans="2:71" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="74"/>
       <c r="D113" s="74"/>
@@ -23623,7 +23623,7 @@
       <c r="BR113" s="74"/>
       <c r="BS113" s="74"/>
     </row>
-    <row r="114" spans="2:71" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="74"/>
       <c r="D114" s="74"/>
@@ -23697,11 +23697,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B9959DD4-3706-438E-A562-D8EA15ABA332}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{17025C23-98C1-415A-88C6-1D0AF2502E42}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{2EE79CF5-4B3B-43A6-BB42-54B19E06E70A}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{6B53C2DF-6C94-440C-9C4C-258BAEC5D7F3}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{5E2EF20B-A31D-4A41-96C9-6AE6B5F266D1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{40D25190-BB30-438A-9495-1899CA7BE38D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{CE7354B6-A7A6-4945-B7C3-047E49DAFC65}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{2994007C-AA25-4807-A2A5-9C91DB90C9A5}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{005AAC5F-0F99-4CD4-8378-3170159360B0}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{3541F189-4E59-47A0-A6B7-D5D67869FAD3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab36.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab36.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1630184-D8BE-4B17-8E2F-9F422CF8B939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE443C24-027A-41B5-AE65-8AF206DB99C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC972BF0-9067-4DFF-9314-97958CAAA918}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E3238082-E48A-4877-9C52-A3025F371831}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
@@ -744,7 +744,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -869,13 +869,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1039,7 +1032,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1259,10 +1252,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1578,7 +1570,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{247781EF-5402-4E15-AD2A-4FF67A36683B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB7A63-3C28-485C-A8C9-A3C79581E406}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -23038,7 +23030,6 @@
       <c r="BS105" s="74"/>
     </row>
     <row r="106" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B106" s="75"/>
       <c r="C106" s="74"/>
       <c r="D106" s="74"/>
       <c r="E106" s="74"/>
@@ -23110,7 +23101,7 @@
       <c r="BS106" s="74"/>
     </row>
     <row r="107" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="76" t="s">
+      <c r="B107" s="75" t="s">
         <v>227</v>
       </c>
       <c r="C107" s="74"/>
@@ -23184,7 +23175,7 @@
       <c r="BS107" s="74"/>
     </row>
     <row r="108" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="76"/>
+      <c r="B108" s="75"/>
       <c r="C108" s="74"/>
       <c r="D108" s="74"/>
       <c r="E108" s="74"/>
@@ -23404,7 +23395,7 @@
       <c r="BS110" s="74"/>
     </row>
     <row r="111" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B111" s="78" t="s">
+      <c r="B111" s="76" t="s">
         <v>231</v>
       </c>
       <c r="C111" s="74"/>
@@ -23478,7 +23469,7 @@
       <c r="BS111" s="74"/>
     </row>
     <row r="112" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="76" t="s">
         <v>228</v>
       </c>
       <c r="C112" s="74"/>
@@ -23697,11 +23688,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{40D25190-BB30-438A-9495-1899CA7BE38D}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{CE7354B6-A7A6-4945-B7C3-047E49DAFC65}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{2994007C-AA25-4807-A2A5-9C91DB90C9A5}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{005AAC5F-0F99-4CD4-8378-3170159360B0}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{3541F189-4E59-47A0-A6B7-D5D67869FAD3}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B1828179-C3FC-46E7-88C1-21926679570B}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{58192638-08E8-4E26-916E-F625B96160BB}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{C8F952F2-F49D-4328-924A-CE6135EE3E0F}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{2545DC58-B474-4F00-8C8E-F293E3BF4067}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{731F5AE1-A965-43E0-B37F-00C535451751}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab36.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab36.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE443C24-027A-41B5-AE65-8AF206DB99C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8F13D3C-703F-4634-A077-98271E1BD81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{E3238082-E48A-4877-9C52-A3025F371831}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EAF389A9-5DE7-4252-98C4-6B2FBE8C0896}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab36" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1969" uniqueCount="234">
   <si>
     <t>Tableau 36 : Emploi par activité commerciale et niveau de compétence</t>
   </si>
@@ -639,13 +639,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -901,7 +907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1026,13 +1032,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD42C2D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD42C2D"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD42C2D"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD42C2D"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1230,7 +1273,10 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1241,6 +1287,12 @@
     </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1570,7 +1622,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB7A63-3C28-485C-A8C9-A3C79581E406}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AC1F1E-0CBE-43E9-AFE3-493F5BDC4145}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1582,7 +1634,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="77" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="80" bestFit="1" customWidth="1"/>
     <col min="4" max="71" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -15639,7 +15691,7 @@
       <c r="A67" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B67" s="51" t="s">
+      <c r="B67" s="67" t="s">
         <v>192</v>
       </c>
       <c r="C67" s="60">
@@ -15854,7 +15906,7 @@
       <c r="A68" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B68" s="51" t="s">
+      <c r="B68" s="67" t="s">
         <v>193</v>
       </c>
       <c r="C68" s="60">
@@ -16069,7 +16121,7 @@
       <c r="A69" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B69" s="51" t="s">
+      <c r="B69" s="67" t="s">
         <v>194</v>
       </c>
       <c r="C69" s="60">
@@ -16284,7 +16336,7 @@
       <c r="A70" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B70" s="51" t="s">
+      <c r="B70" s="67" t="s">
         <v>195</v>
       </c>
       <c r="C70" s="60">
@@ -16499,7 +16551,7 @@
       <c r="A71" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B71" s="51" t="s">
+      <c r="B71" s="67" t="s">
         <v>196</v>
       </c>
       <c r="C71" s="60">
@@ -16714,7 +16766,7 @@
       <c r="A72" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="51" t="s">
+      <c r="B72" s="67" t="s">
         <v>197</v>
       </c>
       <c r="C72" s="60">
@@ -16929,7 +16981,7 @@
       <c r="A73" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="51" t="s">
+      <c r="B73" s="67" t="s">
         <v>198</v>
       </c>
       <c r="C73" s="60">
@@ -17144,8 +17196,8 @@
       <c r="A74" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B74" s="51" t="s">
-        <v>198</v>
+      <c r="B74" s="67" t="s">
+        <v>199</v>
       </c>
       <c r="C74" s="60">
         <v>450.82400000000001</v>
@@ -17359,8 +17411,8 @@
       <c r="A75" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B75" s="51" t="s">
-        <v>199</v>
+      <c r="B75" s="67" t="s">
+        <v>200</v>
       </c>
       <c r="C75" s="52">
         <v>239.631</v>
@@ -17574,214 +17626,214 @@
       <c r="A76" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B76" s="67" t="s">
-        <v>200</v>
-      </c>
-      <c r="C76" s="68">
+      <c r="B76" s="68" t="s">
+        <v>201</v>
+      </c>
+      <c r="C76" s="69">
         <v>22280.558000000001</v>
       </c>
-      <c r="D76" s="69">
+      <c r="D76" s="70">
         <v>676.00800000000004</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="70">
         <v>5784.2179999999998</v>
       </c>
-      <c r="F76" s="69">
+      <c r="F76" s="70">
         <v>67.367999999999995</v>
       </c>
-      <c r="G76" s="69">
+      <c r="G76" s="70">
         <v>360.85300000000001</v>
       </c>
-      <c r="H76" s="69">
+      <c r="H76" s="70">
         <v>9141.2919999999995</v>
       </c>
-      <c r="I76" s="69">
+      <c r="I76" s="70">
         <v>6868.6909999999998</v>
       </c>
-      <c r="J76" s="69">
+      <c r="J76" s="70">
         <v>2148.152</v>
       </c>
-      <c r="K76" s="69">
+      <c r="K76" s="70">
         <v>2038.1289999999999</v>
       </c>
-      <c r="L76" s="69">
+      <c r="L76" s="70">
         <v>46.16</v>
       </c>
-      <c r="M76" s="69">
+      <c r="M76" s="70">
         <v>214.70500000000001</v>
       </c>
-      <c r="N76" s="69">
+      <c r="N76" s="70">
         <v>223.38800000000001</v>
       </c>
-      <c r="O76" s="69">
+      <c r="O76" s="70">
         <v>58.256</v>
       </c>
-      <c r="P76" s="69">
+      <c r="P76" s="70">
         <v>1177.847</v>
       </c>
-      <c r="Q76" s="69">
+      <c r="Q76" s="70">
         <v>718.952</v>
       </c>
-      <c r="R76" s="69">
+      <c r="R76" s="70">
         <v>337.63799999999998</v>
       </c>
-      <c r="S76" s="69">
+      <c r="S76" s="70">
         <v>240.12799999999999</v>
       </c>
-      <c r="T76" s="69">
+      <c r="T76" s="70">
         <v>401.96499999999997</v>
       </c>
-      <c r="U76" s="69">
+      <c r="U76" s="70">
         <v>1839.54</v>
       </c>
-      <c r="V76" s="69">
+      <c r="V76" s="70">
         <v>3956.7570000000001</v>
       </c>
-      <c r="W76" s="69" t="s">
-        <v>74</v>
-      </c>
-      <c r="X76" s="69">
+      <c r="W76" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="X76" s="70">
         <v>58595.135999999999</v>
       </c>
-      <c r="Y76" s="70">
+      <c r="Y76" s="71">
         <v>2.3570000000000002</v>
       </c>
-      <c r="Z76" s="69">
+      <c r="Z76" s="70">
         <v>71090.213000000003</v>
       </c>
-      <c r="AA76" s="69">
+      <c r="AA76" s="70">
         <v>1114.0070000000001</v>
       </c>
-      <c r="AB76" s="69">
+      <c r="AB76" s="70">
         <v>34660.148999999998</v>
       </c>
-      <c r="AC76" s="69">
+      <c r="AC76" s="70">
         <v>380.47300000000001</v>
       </c>
-      <c r="AD76" s="69">
+      <c r="AD76" s="70">
         <v>278.18200000000002</v>
       </c>
-      <c r="AE76" s="69">
+      <c r="AE76" s="70">
         <v>11568.117</v>
       </c>
-      <c r="AF76" s="69">
+      <c r="AF76" s="70">
         <v>44788.078000000001</v>
       </c>
-      <c r="AG76" s="69">
+      <c r="AG76" s="70">
         <v>10760.075999999999</v>
       </c>
-      <c r="AH76" s="69">
+      <c r="AH76" s="70">
         <v>11851.537</v>
       </c>
-      <c r="AI76" s="69">
+      <c r="AI76" s="70">
         <v>712.52200000000005</v>
       </c>
-      <c r="AJ76" s="69">
+      <c r="AJ76" s="70">
         <v>2216.3589999999999</v>
       </c>
-      <c r="AK76" s="69">
+      <c r="AK76" s="70">
         <v>611.85699999999997</v>
       </c>
-      <c r="AL76" s="69">
+      <c r="AL76" s="70">
         <v>601.66300000000001</v>
       </c>
-      <c r="AM76" s="69">
+      <c r="AM76" s="70">
         <v>3863.0909999999999</v>
       </c>
-      <c r="AN76" s="69">
+      <c r="AN76" s="70">
         <v>5429.7830000000004</v>
       </c>
-      <c r="AO76" s="69">
+      <c r="AO76" s="70">
         <v>1428.1079999999999</v>
       </c>
-      <c r="AP76" s="69">
+      <c r="AP76" s="70">
         <v>1134.539</v>
       </c>
-      <c r="AQ76" s="69">
+      <c r="AQ76" s="70">
         <v>763.78800000000001</v>
       </c>
-      <c r="AR76" s="69">
+      <c r="AR76" s="70">
         <v>4190.7389999999996</v>
       </c>
-      <c r="AS76" s="69">
+      <c r="AS76" s="70">
         <v>1166.9770000000001</v>
       </c>
-      <c r="AT76" s="69">
+      <c r="AT76" s="70">
         <v>21.257999999999999</v>
       </c>
-      <c r="AU76" s="69">
+      <c r="AU76" s="70">
         <v>211382.677</v>
       </c>
-      <c r="AV76" s="70">
+      <c r="AV76" s="71">
         <v>2745.8609999999999</v>
       </c>
-      <c r="AW76" s="69">
+      <c r="AW76" s="70">
         <v>369.38</v>
       </c>
-      <c r="AX76" s="69">
+      <c r="AX76" s="70">
         <v>272.45499999999998</v>
       </c>
-      <c r="AY76" s="69">
+      <c r="AY76" s="70">
         <v>4142.2460000000001</v>
       </c>
-      <c r="AZ76" s="69">
+      <c r="AZ76" s="70">
         <v>242.66800000000001</v>
       </c>
-      <c r="BA76" s="69">
+      <c r="BA76" s="70">
         <v>125.863</v>
       </c>
-      <c r="BB76" s="69">
+      <c r="BB76" s="70">
         <v>1847.076</v>
       </c>
-      <c r="BC76" s="69">
+      <c r="BC76" s="70">
         <v>3802.748</v>
       </c>
-      <c r="BD76" s="69">
+      <c r="BD76" s="70">
         <v>829.68799999999999</v>
       </c>
-      <c r="BE76" s="69">
+      <c r="BE76" s="70">
         <v>931.54600000000005</v>
       </c>
-      <c r="BF76" s="69">
+      <c r="BF76" s="70">
         <v>1255.21</v>
       </c>
-      <c r="BG76" s="69">
+      <c r="BG76" s="70">
         <v>1863.326</v>
       </c>
-      <c r="BH76" s="69">
+      <c r="BH76" s="70">
         <v>534.14200000000005</v>
       </c>
-      <c r="BI76" s="69">
+      <c r="BI76" s="70">
         <v>1529.4770000000001</v>
       </c>
-      <c r="BJ76" s="69">
+      <c r="BJ76" s="70">
         <v>707.33399999999995</v>
       </c>
-      <c r="BK76" s="69">
+      <c r="BK76" s="70">
         <v>4298.5810000000001</v>
       </c>
-      <c r="BL76" s="69">
+      <c r="BL76" s="70">
         <v>10321.575999999999</v>
       </c>
-      <c r="BM76" s="69">
+      <c r="BM76" s="70">
         <v>3150.3670000000002</v>
       </c>
-      <c r="BN76" s="69">
+      <c r="BN76" s="70">
         <v>423.81700000000001</v>
       </c>
-      <c r="BO76" s="69">
+      <c r="BO76" s="70">
         <v>733.58900000000006</v>
       </c>
-      <c r="BP76" s="69">
+      <c r="BP76" s="70">
         <v>67.769000000000005</v>
       </c>
-      <c r="BQ76" s="69">
+      <c r="BQ76" s="70">
         <v>10.417999999999999</v>
       </c>
-      <c r="BR76" s="69">
+      <c r="BR76" s="70">
         <v>37482.741999999998</v>
       </c>
-      <c r="BS76" s="70">
+      <c r="BS76" s="71">
         <v>12.662000000000001</v>
       </c>
     </row>
@@ -17789,8 +17841,8 @@
       <c r="A77" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B77" s="51" t="s">
-        <v>201</v>
+      <c r="B77" s="67" t="s">
+        <v>202</v>
       </c>
       <c r="C77" s="60">
         <v>7665.759</v>
@@ -18004,8 +18056,8 @@
       <c r="A78" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B78" s="51" t="s">
-        <v>201</v>
+      <c r="B78" s="67" t="s">
+        <v>203</v>
       </c>
       <c r="C78" s="60">
         <v>1246.3030000000001</v>
@@ -18219,8 +18271,8 @@
       <c r="A79" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B79" s="63" t="s">
-        <v>202</v>
+      <c r="B79" s="72" t="s">
+        <v>204</v>
       </c>
       <c r="C79" s="64">
         <v>11456.942999999999</v>
@@ -18435,7 +18487,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C80" s="60">
         <v>409.59199999999998</v>
@@ -18650,7 +18702,7 @@
         <v>93</v>
       </c>
       <c r="B81" s="51" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C81" s="60">
         <v>2401.7829999999999</v>
@@ -18865,7 +18917,7 @@
         <v>93</v>
       </c>
       <c r="B82" s="51" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C82" s="60">
         <v>17474.385999999999</v>
@@ -19080,7 +19132,7 @@
         <v>93</v>
       </c>
       <c r="B83" s="51" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C83" s="52">
         <v>85947.592000000004</v>
@@ -19294,214 +19346,214 @@
       <c r="A84" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B84" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="C84" s="68">
+      <c r="B84" s="73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C84" s="69">
         <v>11835.508</v>
       </c>
-      <c r="D84" s="69">
+      <c r="D84" s="70">
         <v>460.46600000000001</v>
       </c>
-      <c r="E84" s="69">
+      <c r="E84" s="70">
         <v>641.11500000000001</v>
       </c>
-      <c r="F84" s="69">
+      <c r="F84" s="70">
         <v>7.67</v>
       </c>
-      <c r="G84" s="69">
+      <c r="G84" s="70">
         <v>175.95400000000001</v>
       </c>
-      <c r="H84" s="69">
+      <c r="H84" s="70">
         <v>1034.6410000000001</v>
       </c>
-      <c r="I84" s="69">
+      <c r="I84" s="70">
         <v>828.07100000000003</v>
       </c>
-      <c r="J84" s="69">
+      <c r="J84" s="70">
         <v>414.88900000000001</v>
       </c>
-      <c r="K84" s="69">
+      <c r="K84" s="70">
         <v>232.65199999999999</v>
       </c>
-      <c r="L84" s="69">
+      <c r="L84" s="70">
         <v>11.648999999999999</v>
       </c>
-      <c r="M84" s="69">
+      <c r="M84" s="70">
         <v>20.670999999999999</v>
       </c>
-      <c r="N84" s="69">
+      <c r="N84" s="70">
         <v>8.7579999999999991</v>
       </c>
-      <c r="O84" s="69">
+      <c r="O84" s="70">
         <v>10.391999999999999</v>
       </c>
-      <c r="P84" s="69">
+      <c r="P84" s="70">
         <v>133.70599999999999</v>
       </c>
-      <c r="Q84" s="69">
+      <c r="Q84" s="70">
         <v>123.18899999999999</v>
       </c>
-      <c r="R84" s="69">
+      <c r="R84" s="70">
         <v>71.981999999999999</v>
       </c>
-      <c r="S84" s="69">
+      <c r="S84" s="70">
         <v>79.072999999999993</v>
       </c>
-      <c r="T84" s="69">
+      <c r="T84" s="70">
         <v>28.088999999999999</v>
       </c>
-      <c r="U84" s="69">
+      <c r="U84" s="70">
         <v>1064.394</v>
       </c>
-      <c r="V84" s="69">
+      <c r="V84" s="70">
         <v>3719.0610000000001</v>
       </c>
-      <c r="W84" s="69">
+      <c r="W84" s="70">
         <v>66.891000000000005</v>
       </c>
-      <c r="X84" s="69">
+      <c r="X84" s="70">
         <v>21045.842000000001</v>
       </c>
-      <c r="Y84" s="70">
+      <c r="Y84" s="71">
         <v>19.062000000000001</v>
       </c>
-      <c r="Z84" s="69">
+      <c r="Z84" s="70">
         <v>57185.826000000001</v>
       </c>
-      <c r="AA84" s="69">
+      <c r="AA84" s="70">
         <v>440.279</v>
       </c>
-      <c r="AB84" s="69">
+      <c r="AB84" s="70">
         <v>4813.75</v>
       </c>
-      <c r="AC84" s="69">
+      <c r="AC84" s="70">
         <v>46.209000000000003</v>
       </c>
-      <c r="AD84" s="69">
+      <c r="AD84" s="70">
         <v>38.287999999999997</v>
       </c>
-      <c r="AE84" s="69">
+      <c r="AE84" s="70">
         <v>1462.203</v>
       </c>
-      <c r="AF84" s="69">
+      <c r="AF84" s="70">
         <v>9901.3510000000006</v>
       </c>
-      <c r="AG84" s="69">
+      <c r="AG84" s="70">
         <v>1837.9559999999999</v>
       </c>
-      <c r="AH84" s="69">
+      <c r="AH84" s="70">
         <v>1055.203</v>
       </c>
-      <c r="AI84" s="69">
+      <c r="AI84" s="70">
         <v>90.591999999999999</v>
       </c>
-      <c r="AJ84" s="69">
+      <c r="AJ84" s="70">
         <v>117.376</v>
       </c>
-      <c r="AK84" s="69">
+      <c r="AK84" s="70">
         <v>12.433</v>
       </c>
-      <c r="AL84" s="69">
+      <c r="AL84" s="70">
         <v>95.123999999999995</v>
       </c>
-      <c r="AM84" s="69">
+      <c r="AM84" s="70">
         <v>487.57900000000001</v>
       </c>
-      <c r="AN84" s="69">
+      <c r="AN84" s="70">
         <v>451.65</v>
       </c>
-      <c r="AO84" s="69">
+      <c r="AO84" s="70">
         <v>166.53800000000001</v>
       </c>
-      <c r="AP84" s="69">
+      <c r="AP84" s="70">
         <v>144.32</v>
       </c>
-      <c r="AQ84" s="69">
+      <c r="AQ84" s="70">
         <v>102.21899999999999</v>
       </c>
-      <c r="AR84" s="69">
+      <c r="AR84" s="70">
         <v>1752.979</v>
       </c>
-      <c r="AS84" s="69">
+      <c r="AS84" s="70">
         <v>1127.68</v>
       </c>
-      <c r="AT84" s="69">
+      <c r="AT84" s="70">
         <v>27.585999999999999</v>
       </c>
-      <c r="AU84" s="69">
+      <c r="AU84" s="70">
         <v>81565.547000000006</v>
       </c>
-      <c r="AV84" s="70">
+      <c r="AV84" s="71">
         <v>169.09399999999999</v>
       </c>
-      <c r="AW84" s="69">
+      <c r="AW84" s="70">
         <v>176.86799999999999</v>
       </c>
-      <c r="AX84" s="69">
+      <c r="AX84" s="70">
         <v>54.353000000000002</v>
       </c>
-      <c r="AY84" s="69">
+      <c r="AY84" s="70">
         <v>276.04300000000001</v>
       </c>
-      <c r="AZ84" s="69">
+      <c r="AZ84" s="70">
         <v>32.527000000000001</v>
       </c>
-      <c r="BA84" s="69">
+      <c r="BA84" s="70">
         <v>27.54</v>
       </c>
-      <c r="BB84" s="69">
+      <c r="BB84" s="70">
         <v>193.89400000000001</v>
       </c>
-      <c r="BC84" s="69">
+      <c r="BC84" s="70">
         <v>393.19299999999998</v>
       </c>
-      <c r="BD84" s="69">
+      <c r="BD84" s="70">
         <v>93.536000000000001</v>
       </c>
-      <c r="BE84" s="69">
+      <c r="BE84" s="70">
         <v>169.74700000000001</v>
       </c>
-      <c r="BF84" s="69">
+      <c r="BF84" s="70">
         <v>166.53</v>
       </c>
-      <c r="BG84" s="69">
+      <c r="BG84" s="70">
         <v>288.971</v>
       </c>
-      <c r="BH84" s="69">
+      <c r="BH84" s="70">
         <v>30.712</v>
       </c>
-      <c r="BI84" s="69">
+      <c r="BI84" s="70">
         <v>342.363</v>
       </c>
-      <c r="BJ84" s="69">
+      <c r="BJ84" s="70">
         <v>253.477</v>
       </c>
-      <c r="BK84" s="69">
+      <c r="BK84" s="70">
         <v>452.517</v>
       </c>
-      <c r="BL84" s="69">
+      <c r="BL84" s="70">
         <v>1792.393</v>
       </c>
-      <c r="BM84" s="69">
+      <c r="BM84" s="70">
         <v>765.84500000000003</v>
       </c>
-      <c r="BN84" s="69">
+      <c r="BN84" s="70">
         <v>56.725000000000001</v>
       </c>
-      <c r="BO84" s="69">
+      <c r="BO84" s="70">
         <v>234.58099999999999</v>
       </c>
-      <c r="BP84" s="69">
+      <c r="BP84" s="70">
         <v>17.837</v>
       </c>
-      <c r="BQ84" s="69">
+      <c r="BQ84" s="70">
         <v>48.222999999999999</v>
       </c>
-      <c r="BR84" s="69">
+      <c r="BR84" s="70">
         <v>5945.9859999999999</v>
       </c>
-      <c r="BS84" s="70">
+      <c r="BS84" s="71">
         <v>40.439</v>
       </c>
     </row>
@@ -19509,8 +19561,8 @@
       <c r="A85" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B85" s="71" t="s">
-        <v>208</v>
+      <c r="B85" s="74" t="s">
+        <v>210</v>
       </c>
       <c r="C85" s="60">
         <v>84.396000000000001</v>
@@ -19725,7 +19777,7 @@
         <v>93</v>
       </c>
       <c r="B86" s="51" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C86" s="60">
         <v>5949.1840000000002</v>
@@ -19940,7 +19992,7 @@
         <v>93</v>
       </c>
       <c r="B87" s="51" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C87" s="60">
         <v>62193.807999999997</v>
@@ -20155,7 +20207,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="51" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C88" s="60">
         <v>99.031999999999996</v>
@@ -20370,7 +20422,7 @@
         <v>93</v>
       </c>
       <c r="B89" s="51" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C89" s="60">
         <v>23875.007000000001</v>
@@ -20585,7 +20637,7 @@
         <v>93</v>
       </c>
       <c r="B90" s="63" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C90" s="64">
         <v>2196.4180000000001</v>
@@ -20800,7 +20852,7 @@
         <v>93</v>
       </c>
       <c r="B91" s="51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C91" s="60">
         <v>13352.623</v>
@@ -21015,7 +21067,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="51" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C92" s="60">
         <v>8319.8490000000002</v>
@@ -21230,7 +21282,7 @@
         <v>93</v>
       </c>
       <c r="B93" s="51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C93" s="60">
         <v>131.685</v>
@@ -21445,7 +21497,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="51" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C94" s="60">
         <v>203.42</v>
@@ -21660,7 +21712,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="51" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C95" s="60">
         <v>7314.53</v>
@@ -21875,7 +21927,7 @@
         <v>93</v>
       </c>
       <c r="B96" s="51" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C96" s="52">
         <v>871.34500000000003</v>
@@ -22089,214 +22141,214 @@
       <c r="A97" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="B97" s="67" t="s">
-        <v>220</v>
-      </c>
-      <c r="C97" s="68">
+      <c r="B97" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="69">
         <v>15322.21</v>
       </c>
-      <c r="D97" s="69">
+      <c r="D97" s="70">
         <v>706.65200000000004</v>
       </c>
-      <c r="E97" s="69">
+      <c r="E97" s="70">
         <v>1626.943</v>
       </c>
-      <c r="F97" s="69">
+      <c r="F97" s="70">
         <v>17.143999999999998</v>
       </c>
-      <c r="G97" s="69">
+      <c r="G97" s="70">
         <v>265.76</v>
       </c>
-      <c r="H97" s="69">
+      <c r="H97" s="70">
         <v>1716.3689999999999</v>
       </c>
-      <c r="I97" s="69">
+      <c r="I97" s="70">
         <v>3753.6350000000002</v>
       </c>
-      <c r="J97" s="69">
+      <c r="J97" s="70">
         <v>1250.529</v>
       </c>
-      <c r="K97" s="69">
+      <c r="K97" s="70">
         <v>898.57</v>
       </c>
-      <c r="L97" s="69">
+      <c r="L97" s="70">
         <v>58.344999999999999</v>
       </c>
-      <c r="M97" s="69">
+      <c r="M97" s="70">
         <v>48.671999999999997</v>
       </c>
-      <c r="N97" s="69">
+      <c r="N97" s="70">
         <v>28.515999999999998</v>
       </c>
-      <c r="O97" s="69">
+      <c r="O97" s="70">
         <v>29.236000000000001</v>
       </c>
-      <c r="P97" s="69">
+      <c r="P97" s="70">
         <v>606.53399999999999</v>
       </c>
-      <c r="Q97" s="69">
+      <c r="Q97" s="70">
         <v>227.88800000000001</v>
       </c>
-      <c r="R97" s="69">
+      <c r="R97" s="70">
         <v>249.55099999999999</v>
       </c>
-      <c r="S97" s="69">
+      <c r="S97" s="70">
         <v>255.61099999999999</v>
       </c>
-      <c r="T97" s="69">
+      <c r="T97" s="70">
         <v>36.139000000000003</v>
       </c>
-      <c r="U97" s="69">
+      <c r="U97" s="70">
         <v>1378.2619999999999</v>
       </c>
-      <c r="V97" s="69">
+      <c r="V97" s="70">
         <v>4780.22</v>
       </c>
-      <c r="W97" s="69">
+      <c r="W97" s="70">
         <v>29.724</v>
       </c>
-      <c r="X97" s="69">
+      <c r="X97" s="70">
         <v>33433.769999999997</v>
       </c>
-      <c r="Y97" s="70">
+      <c r="Y97" s="71">
         <v>21.475000000000001</v>
       </c>
-      <c r="Z97" s="69">
+      <c r="Z97" s="70">
         <v>111661.27499999999</v>
       </c>
-      <c r="AA97" s="69">
+      <c r="AA97" s="70">
         <v>1073.6120000000001</v>
       </c>
-      <c r="AB97" s="69">
+      <c r="AB97" s="70">
         <v>13529.123</v>
       </c>
-      <c r="AC97" s="69">
+      <c r="AC97" s="70">
         <v>235.62200000000001</v>
       </c>
-      <c r="AD97" s="69">
+      <c r="AD97" s="70">
         <v>122.57299999999999</v>
       </c>
-      <c r="AE97" s="69">
+      <c r="AE97" s="70">
         <v>4285.634</v>
       </c>
-      <c r="AF97" s="69">
+      <c r="AF97" s="70">
         <v>20929.5</v>
       </c>
-      <c r="AG97" s="69">
+      <c r="AG97" s="70">
         <v>6149.25</v>
       </c>
-      <c r="AH97" s="69">
+      <c r="AH97" s="70">
         <v>3997.4409999999998</v>
       </c>
-      <c r="AI97" s="69">
+      <c r="AI97" s="70">
         <v>319.55500000000001</v>
       </c>
-      <c r="AJ97" s="69">
+      <c r="AJ97" s="70">
         <v>359.86200000000002</v>
       </c>
-      <c r="AK97" s="69">
+      <c r="AK97" s="70">
         <v>50.302</v>
       </c>
-      <c r="AL97" s="69">
+      <c r="AL97" s="70">
         <v>331.41300000000001</v>
       </c>
-      <c r="AM97" s="69">
+      <c r="AM97" s="70">
         <v>1811.07</v>
       </c>
-      <c r="AN97" s="69">
+      <c r="AN97" s="70">
         <v>1161.009</v>
       </c>
-      <c r="AO97" s="69">
+      <c r="AO97" s="70">
         <v>791.24800000000005</v>
       </c>
-      <c r="AP97" s="69">
+      <c r="AP97" s="70">
         <v>675.20699999999999</v>
       </c>
-      <c r="AQ97" s="69">
+      <c r="AQ97" s="70">
         <v>337.95299999999997</v>
       </c>
-      <c r="AR97" s="69">
+      <c r="AR97" s="70">
         <v>5422.9409999999998</v>
       </c>
-      <c r="AS97" s="69">
+      <c r="AS97" s="70">
         <v>2307.9380000000001</v>
       </c>
-      <c r="AT97" s="69">
+      <c r="AT97" s="70">
         <v>48.168999999999997</v>
       </c>
-      <c r="AU97" s="69">
+      <c r="AU97" s="70">
         <v>175828.16500000001</v>
       </c>
-      <c r="AV97" s="70">
+      <c r="AV97" s="71">
         <v>171.44200000000001</v>
       </c>
-      <c r="AW97" s="69">
+      <c r="AW97" s="70">
         <v>2152.8090000000002</v>
       </c>
-      <c r="AX97" s="69">
+      <c r="AX97" s="70">
         <v>192.30799999999999</v>
       </c>
-      <c r="AY97" s="69">
+      <c r="AY97" s="70">
         <v>2484.4409999999998</v>
       </c>
-      <c r="AZ97" s="69">
+      <c r="AZ97" s="70">
         <v>127.58499999999999</v>
       </c>
-      <c r="BA97" s="69">
+      <c r="BA97" s="70">
         <v>136.66499999999999</v>
       </c>
-      <c r="BB97" s="69">
+      <c r="BB97" s="70">
         <v>733.13199999999995</v>
       </c>
-      <c r="BC97" s="69">
+      <c r="BC97" s="70">
         <v>14477.549000000001</v>
       </c>
-      <c r="BD97" s="69">
+      <c r="BD97" s="70">
         <v>280.464</v>
       </c>
-      <c r="BE97" s="69">
+      <c r="BE97" s="70">
         <v>1250.338</v>
       </c>
-      <c r="BF97" s="69">
+      <c r="BF97" s="70">
         <v>602.26599999999996</v>
       </c>
-      <c r="BG97" s="69">
+      <c r="BG97" s="70">
         <v>694.42499999999995</v>
       </c>
-      <c r="BH97" s="69">
+      <c r="BH97" s="70">
         <v>152.995</v>
       </c>
-      <c r="BI97" s="69">
+      <c r="BI97" s="70">
         <v>1094.097</v>
       </c>
-      <c r="BJ97" s="69">
+      <c r="BJ97" s="70">
         <v>1403.212</v>
       </c>
-      <c r="BK97" s="69">
+      <c r="BK97" s="70">
         <v>1366.848</v>
       </c>
-      <c r="BL97" s="69">
+      <c r="BL97" s="70">
         <v>6020.5770000000002</v>
       </c>
-      <c r="BM97" s="69">
+      <c r="BM97" s="70">
         <v>2255.2440000000001</v>
       </c>
-      <c r="BN97" s="69">
+      <c r="BN97" s="70">
         <v>316.51</v>
       </c>
-      <c r="BO97" s="69">
+      <c r="BO97" s="70">
         <v>1198.546</v>
       </c>
-      <c r="BP97" s="69">
+      <c r="BP97" s="70">
         <v>194.80099999999999</v>
       </c>
-      <c r="BQ97" s="69">
+      <c r="BQ97" s="70">
         <v>63.325000000000003</v>
       </c>
-      <c r="BR97" s="69">
+      <c r="BR97" s="70">
         <v>37305.455999999998</v>
       </c>
-      <c r="BS97" s="70">
+      <c r="BS97" s="71">
         <v>46.665999999999997</v>
       </c>
     </row>
@@ -22305,7 +22357,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="63" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C98" s="64">
         <v>11811.707</v>
@@ -22516,8 +22568,8 @@
       </c>
     </row>
     <row r="99" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A99" s="72"/>
-      <c r="B99" s="73"/>
+      <c r="A99" s="75"/>
+      <c r="B99" s="76"/>
       <c r="C99" s="53"/>
       <c r="D99" s="53"/>
       <c r="E99" s="53"/>
@@ -22590,1109 +22642,1109 @@
     </row>
     <row r="100" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C100" s="74"/>
-      <c r="D100" s="74"/>
-      <c r="E100" s="74"/>
-      <c r="F100" s="74"/>
-      <c r="G100" s="74"/>
-      <c r="H100" s="74"/>
-      <c r="I100" s="74"/>
-      <c r="J100" s="74"/>
-      <c r="K100" s="74"/>
-      <c r="L100" s="74"/>
-      <c r="M100" s="74"/>
-      <c r="N100" s="74"/>
-      <c r="O100" s="74"/>
-      <c r="P100" s="74"/>
-      <c r="Q100" s="74"/>
-      <c r="R100" s="74"/>
-      <c r="S100" s="74"/>
-      <c r="T100" s="74"/>
-      <c r="U100" s="74"/>
-      <c r="V100" s="74"/>
-      <c r="W100" s="74"/>
-      <c r="X100" s="74"/>
-      <c r="Y100" s="74"/>
-      <c r="Z100" s="74"/>
-      <c r="AA100" s="74"/>
-      <c r="AB100" s="74"/>
-      <c r="AC100" s="74"/>
-      <c r="AD100" s="74"/>
-      <c r="AE100" s="74"/>
-      <c r="AF100" s="74"/>
-      <c r="AG100" s="74"/>
-      <c r="AH100" s="74"/>
-      <c r="AI100" s="74"/>
-      <c r="AJ100" s="74"/>
-      <c r="AK100" s="74"/>
-      <c r="AL100" s="74"/>
-      <c r="AM100" s="74"/>
-      <c r="AN100" s="74"/>
-      <c r="AO100" s="74"/>
-      <c r="AP100" s="74"/>
-      <c r="AQ100" s="74"/>
-      <c r="AR100" s="74"/>
-      <c r="AS100" s="74"/>
-      <c r="AT100" s="74"/>
-      <c r="AU100" s="74"/>
-      <c r="AV100" s="74"/>
-      <c r="AW100" s="74"/>
-      <c r="AX100" s="74"/>
-      <c r="AY100" s="74"/>
-      <c r="AZ100" s="74"/>
-      <c r="BA100" s="74"/>
-      <c r="BB100" s="74"/>
-      <c r="BC100" s="74"/>
-      <c r="BD100" s="74"/>
-      <c r="BE100" s="74"/>
-      <c r="BF100" s="74"/>
-      <c r="BG100" s="74"/>
-      <c r="BH100" s="74"/>
-      <c r="BI100" s="74"/>
-      <c r="BJ100" s="74"/>
-      <c r="BK100" s="74"/>
-      <c r="BL100" s="74"/>
-      <c r="BM100" s="74"/>
-      <c r="BN100" s="74"/>
-      <c r="BO100" s="74"/>
-      <c r="BP100" s="74"/>
-      <c r="BQ100" s="74"/>
-      <c r="BR100" s="74"/>
-      <c r="BS100" s="74"/>
+        <v>224</v>
+      </c>
+      <c r="C100" s="77"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="77"/>
+      <c r="F100" s="77"/>
+      <c r="G100" s="77"/>
+      <c r="H100" s="77"/>
+      <c r="I100" s="77"/>
+      <c r="J100" s="77"/>
+      <c r="K100" s="77"/>
+      <c r="L100" s="77"/>
+      <c r="M100" s="77"/>
+      <c r="N100" s="77"/>
+      <c r="O100" s="77"/>
+      <c r="P100" s="77"/>
+      <c r="Q100" s="77"/>
+      <c r="R100" s="77"/>
+      <c r="S100" s="77"/>
+      <c r="T100" s="77"/>
+      <c r="U100" s="77"/>
+      <c r="V100" s="77"/>
+      <c r="W100" s="77"/>
+      <c r="X100" s="77"/>
+      <c r="Y100" s="77"/>
+      <c r="Z100" s="77"/>
+      <c r="AA100" s="77"/>
+      <c r="AB100" s="77"/>
+      <c r="AC100" s="77"/>
+      <c r="AD100" s="77"/>
+      <c r="AE100" s="77"/>
+      <c r="AF100" s="77"/>
+      <c r="AG100" s="77"/>
+      <c r="AH100" s="77"/>
+      <c r="AI100" s="77"/>
+      <c r="AJ100" s="77"/>
+      <c r="AK100" s="77"/>
+      <c r="AL100" s="77"/>
+      <c r="AM100" s="77"/>
+      <c r="AN100" s="77"/>
+      <c r="AO100" s="77"/>
+      <c r="AP100" s="77"/>
+      <c r="AQ100" s="77"/>
+      <c r="AR100" s="77"/>
+      <c r="AS100" s="77"/>
+      <c r="AT100" s="77"/>
+      <c r="AU100" s="77"/>
+      <c r="AV100" s="77"/>
+      <c r="AW100" s="77"/>
+      <c r="AX100" s="77"/>
+      <c r="AY100" s="77"/>
+      <c r="AZ100" s="77"/>
+      <c r="BA100" s="77"/>
+      <c r="BB100" s="77"/>
+      <c r="BC100" s="77"/>
+      <c r="BD100" s="77"/>
+      <c r="BE100" s="77"/>
+      <c r="BF100" s="77"/>
+      <c r="BG100" s="77"/>
+      <c r="BH100" s="77"/>
+      <c r="BI100" s="77"/>
+      <c r="BJ100" s="77"/>
+      <c r="BK100" s="77"/>
+      <c r="BL100" s="77"/>
+      <c r="BM100" s="77"/>
+      <c r="BN100" s="77"/>
+      <c r="BO100" s="77"/>
+      <c r="BP100" s="77"/>
+      <c r="BQ100" s="77"/>
+      <c r="BR100" s="77"/>
+      <c r="BS100" s="77"/>
     </row>
     <row r="101" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C101" s="74"/>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
-      <c r="G101" s="74"/>
-      <c r="H101" s="74"/>
-      <c r="I101" s="74"/>
-      <c r="J101" s="74"/>
-      <c r="K101" s="74"/>
-      <c r="L101" s="74"/>
-      <c r="M101" s="74"/>
-      <c r="N101" s="74"/>
-      <c r="O101" s="74"/>
-      <c r="P101" s="74"/>
-      <c r="Q101" s="74"/>
-      <c r="R101" s="74"/>
-      <c r="S101" s="74"/>
-      <c r="T101" s="74"/>
-      <c r="U101" s="74"/>
-      <c r="V101" s="74"/>
-      <c r="W101" s="74"/>
-      <c r="X101" s="74"/>
-      <c r="Y101" s="74"/>
-      <c r="Z101" s="74"/>
-      <c r="AA101" s="74"/>
-      <c r="AB101" s="74"/>
-      <c r="AC101" s="74"/>
-      <c r="AD101" s="74"/>
-      <c r="AE101" s="74"/>
-      <c r="AF101" s="74"/>
-      <c r="AG101" s="74"/>
-      <c r="AH101" s="74"/>
-      <c r="AI101" s="74"/>
-      <c r="AJ101" s="74"/>
-      <c r="AK101" s="74"/>
-      <c r="AL101" s="74"/>
-      <c r="AM101" s="74"/>
-      <c r="AN101" s="74"/>
-      <c r="AO101" s="74"/>
-      <c r="AP101" s="74"/>
-      <c r="AQ101" s="74"/>
-      <c r="AR101" s="74"/>
-      <c r="AS101" s="74"/>
-      <c r="AT101" s="74"/>
-      <c r="AU101" s="74"/>
-      <c r="AV101" s="74"/>
-      <c r="AW101" s="74"/>
-      <c r="AX101" s="74"/>
-      <c r="AY101" s="74"/>
-      <c r="AZ101" s="74"/>
-      <c r="BA101" s="74"/>
-      <c r="BB101" s="74"/>
-      <c r="BC101" s="74"/>
-      <c r="BD101" s="74"/>
-      <c r="BE101" s="74"/>
-      <c r="BF101" s="74"/>
-      <c r="BG101" s="74"/>
-      <c r="BH101" s="74"/>
-      <c r="BI101" s="74"/>
-      <c r="BJ101" s="74"/>
-      <c r="BK101" s="74"/>
-      <c r="BL101" s="74"/>
-      <c r="BM101" s="74"/>
-      <c r="BN101" s="74"/>
-      <c r="BO101" s="74"/>
-      <c r="BP101" s="74"/>
-      <c r="BQ101" s="74"/>
-      <c r="BR101" s="74"/>
-      <c r="BS101" s="74"/>
+        <v>225</v>
+      </c>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="77"/>
+      <c r="G101" s="77"/>
+      <c r="H101" s="77"/>
+      <c r="I101" s="77"/>
+      <c r="J101" s="77"/>
+      <c r="K101" s="77"/>
+      <c r="L101" s="77"/>
+      <c r="M101" s="77"/>
+      <c r="N101" s="77"/>
+      <c r="O101" s="77"/>
+      <c r="P101" s="77"/>
+      <c r="Q101" s="77"/>
+      <c r="R101" s="77"/>
+      <c r="S101" s="77"/>
+      <c r="T101" s="77"/>
+      <c r="U101" s="77"/>
+      <c r="V101" s="77"/>
+      <c r="W101" s="77"/>
+      <c r="X101" s="77"/>
+      <c r="Y101" s="77"/>
+      <c r="Z101" s="77"/>
+      <c r="AA101" s="77"/>
+      <c r="AB101" s="77"/>
+      <c r="AC101" s="77"/>
+      <c r="AD101" s="77"/>
+      <c r="AE101" s="77"/>
+      <c r="AF101" s="77"/>
+      <c r="AG101" s="77"/>
+      <c r="AH101" s="77"/>
+      <c r="AI101" s="77"/>
+      <c r="AJ101" s="77"/>
+      <c r="AK101" s="77"/>
+      <c r="AL101" s="77"/>
+      <c r="AM101" s="77"/>
+      <c r="AN101" s="77"/>
+      <c r="AO101" s="77"/>
+      <c r="AP101" s="77"/>
+      <c r="AQ101" s="77"/>
+      <c r="AR101" s="77"/>
+      <c r="AS101" s="77"/>
+      <c r="AT101" s="77"/>
+      <c r="AU101" s="77"/>
+      <c r="AV101" s="77"/>
+      <c r="AW101" s="77"/>
+      <c r="AX101" s="77"/>
+      <c r="AY101" s="77"/>
+      <c r="AZ101" s="77"/>
+      <c r="BA101" s="77"/>
+      <c r="BB101" s="77"/>
+      <c r="BC101" s="77"/>
+      <c r="BD101" s="77"/>
+      <c r="BE101" s="77"/>
+      <c r="BF101" s="77"/>
+      <c r="BG101" s="77"/>
+      <c r="BH101" s="77"/>
+      <c r="BI101" s="77"/>
+      <c r="BJ101" s="77"/>
+      <c r="BK101" s="77"/>
+      <c r="BL101" s="77"/>
+      <c r="BM101" s="77"/>
+      <c r="BN101" s="77"/>
+      <c r="BO101" s="77"/>
+      <c r="BP101" s="77"/>
+      <c r="BQ101" s="77"/>
+      <c r="BR101" s="77"/>
+      <c r="BS101" s="77"/>
     </row>
     <row r="102" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C102" s="74"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="74"/>
-      <c r="F102" s="74"/>
-      <c r="G102" s="74"/>
-      <c r="H102" s="74"/>
-      <c r="I102" s="74"/>
-      <c r="J102" s="74"/>
-      <c r="K102" s="74"/>
-      <c r="L102" s="74"/>
-      <c r="M102" s="74"/>
-      <c r="N102" s="74"/>
-      <c r="O102" s="74"/>
-      <c r="P102" s="74"/>
-      <c r="Q102" s="74"/>
-      <c r="R102" s="74"/>
-      <c r="S102" s="74"/>
-      <c r="T102" s="74"/>
-      <c r="U102" s="74"/>
-      <c r="V102" s="74"/>
-      <c r="W102" s="74"/>
-      <c r="X102" s="74"/>
-      <c r="Y102" s="74"/>
-      <c r="Z102" s="74"/>
-      <c r="AA102" s="74"/>
-      <c r="AB102" s="74"/>
-      <c r="AC102" s="74"/>
-      <c r="AD102" s="74"/>
-      <c r="AE102" s="74"/>
-      <c r="AF102" s="74"/>
-      <c r="AG102" s="74"/>
-      <c r="AH102" s="74"/>
-      <c r="AI102" s="74"/>
-      <c r="AJ102" s="74"/>
-      <c r="AK102" s="74"/>
-      <c r="AL102" s="74"/>
-      <c r="AM102" s="74"/>
-      <c r="AN102" s="74"/>
-      <c r="AO102" s="74"/>
-      <c r="AP102" s="74"/>
-      <c r="AQ102" s="74"/>
-      <c r="AR102" s="74"/>
-      <c r="AS102" s="74"/>
-      <c r="AT102" s="74"/>
-      <c r="AU102" s="74"/>
-      <c r="AV102" s="74"/>
-      <c r="AW102" s="74"/>
-      <c r="AX102" s="74"/>
-      <c r="AY102" s="74"/>
-      <c r="AZ102" s="74"/>
-      <c r="BA102" s="74"/>
-      <c r="BB102" s="74"/>
-      <c r="BC102" s="74"/>
-      <c r="BD102" s="74"/>
-      <c r="BE102" s="74"/>
-      <c r="BF102" s="74"/>
-      <c r="BG102" s="74"/>
-      <c r="BH102" s="74"/>
-      <c r="BI102" s="74"/>
-      <c r="BJ102" s="74"/>
-      <c r="BK102" s="74"/>
-      <c r="BL102" s="74"/>
-      <c r="BM102" s="74"/>
-      <c r="BN102" s="74"/>
-      <c r="BO102" s="74"/>
-      <c r="BP102" s="74"/>
-      <c r="BQ102" s="74"/>
-      <c r="BR102" s="74"/>
-      <c r="BS102" s="74"/>
+        <v>226</v>
+      </c>
+      <c r="C102" s="77"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="77"/>
+      <c r="H102" s="77"/>
+      <c r="I102" s="77"/>
+      <c r="J102" s="77"/>
+      <c r="K102" s="77"/>
+      <c r="L102" s="77"/>
+      <c r="M102" s="77"/>
+      <c r="N102" s="77"/>
+      <c r="O102" s="77"/>
+      <c r="P102" s="77"/>
+      <c r="Q102" s="77"/>
+      <c r="R102" s="77"/>
+      <c r="S102" s="77"/>
+      <c r="T102" s="77"/>
+      <c r="U102" s="77"/>
+      <c r="V102" s="77"/>
+      <c r="W102" s="77"/>
+      <c r="X102" s="77"/>
+      <c r="Y102" s="77"/>
+      <c r="Z102" s="77"/>
+      <c r="AA102" s="77"/>
+      <c r="AB102" s="77"/>
+      <c r="AC102" s="77"/>
+      <c r="AD102" s="77"/>
+      <c r="AE102" s="77"/>
+      <c r="AF102" s="77"/>
+      <c r="AG102" s="77"/>
+      <c r="AH102" s="77"/>
+      <c r="AI102" s="77"/>
+      <c r="AJ102" s="77"/>
+      <c r="AK102" s="77"/>
+      <c r="AL102" s="77"/>
+      <c r="AM102" s="77"/>
+      <c r="AN102" s="77"/>
+      <c r="AO102" s="77"/>
+      <c r="AP102" s="77"/>
+      <c r="AQ102" s="77"/>
+      <c r="AR102" s="77"/>
+      <c r="AS102" s="77"/>
+      <c r="AT102" s="77"/>
+      <c r="AU102" s="77"/>
+      <c r="AV102" s="77"/>
+      <c r="AW102" s="77"/>
+      <c r="AX102" s="77"/>
+      <c r="AY102" s="77"/>
+      <c r="AZ102" s="77"/>
+      <c r="BA102" s="77"/>
+      <c r="BB102" s="77"/>
+      <c r="BC102" s="77"/>
+      <c r="BD102" s="77"/>
+      <c r="BE102" s="77"/>
+      <c r="BF102" s="77"/>
+      <c r="BG102" s="77"/>
+      <c r="BH102" s="77"/>
+      <c r="BI102" s="77"/>
+      <c r="BJ102" s="77"/>
+      <c r="BK102" s="77"/>
+      <c r="BL102" s="77"/>
+      <c r="BM102" s="77"/>
+      <c r="BN102" s="77"/>
+      <c r="BO102" s="77"/>
+      <c r="BP102" s="77"/>
+      <c r="BQ102" s="77"/>
+      <c r="BR102" s="77"/>
+      <c r="BS102" s="77"/>
     </row>
     <row r="103" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C103" s="74"/>
-      <c r="D103" s="74"/>
-      <c r="E103" s="74"/>
-      <c r="F103" s="74"/>
-      <c r="G103" s="74"/>
-      <c r="H103" s="74"/>
-      <c r="I103" s="74"/>
-      <c r="J103" s="74"/>
-      <c r="K103" s="74"/>
-      <c r="L103" s="74"/>
-      <c r="M103" s="74"/>
-      <c r="N103" s="74"/>
-      <c r="O103" s="74"/>
-      <c r="P103" s="74"/>
-      <c r="Q103" s="74"/>
-      <c r="R103" s="74"/>
-      <c r="S103" s="74"/>
-      <c r="T103" s="74"/>
-      <c r="U103" s="74"/>
-      <c r="V103" s="74"/>
-      <c r="W103" s="74"/>
-      <c r="X103" s="74"/>
-      <c r="Y103" s="74"/>
-      <c r="Z103" s="74"/>
-      <c r="AA103" s="74"/>
-      <c r="AB103" s="74"/>
-      <c r="AC103" s="74"/>
-      <c r="AD103" s="74"/>
-      <c r="AE103" s="74"/>
-      <c r="AF103" s="74"/>
-      <c r="AG103" s="74"/>
-      <c r="AH103" s="74"/>
-      <c r="AI103" s="74"/>
-      <c r="AJ103" s="74"/>
-      <c r="AK103" s="74"/>
-      <c r="AL103" s="74"/>
-      <c r="AM103" s="74"/>
-      <c r="AN103" s="74"/>
-      <c r="AO103" s="74"/>
-      <c r="AP103" s="74"/>
-      <c r="AQ103" s="74"/>
-      <c r="AR103" s="74"/>
-      <c r="AS103" s="74"/>
-      <c r="AT103" s="74"/>
-      <c r="AU103" s="74"/>
-      <c r="AV103" s="74"/>
-      <c r="AW103" s="74"/>
-      <c r="AX103" s="74"/>
-      <c r="AY103" s="74"/>
-      <c r="AZ103" s="74"/>
-      <c r="BA103" s="74"/>
-      <c r="BB103" s="74"/>
-      <c r="BC103" s="74"/>
-      <c r="BD103" s="74"/>
-      <c r="BE103" s="74"/>
-      <c r="BF103" s="74"/>
-      <c r="BG103" s="74"/>
-      <c r="BH103" s="74"/>
-      <c r="BI103" s="74"/>
-      <c r="BJ103" s="74"/>
-      <c r="BK103" s="74"/>
-      <c r="BL103" s="74"/>
-      <c r="BM103" s="74"/>
-      <c r="BN103" s="74"/>
-      <c r="BO103" s="74"/>
-      <c r="BP103" s="74"/>
-      <c r="BQ103" s="74"/>
-      <c r="BR103" s="74"/>
-      <c r="BS103" s="74"/>
+        <v>227</v>
+      </c>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="77"/>
+      <c r="G103" s="77"/>
+      <c r="H103" s="77"/>
+      <c r="I103" s="77"/>
+      <c r="J103" s="77"/>
+      <c r="K103" s="77"/>
+      <c r="L103" s="77"/>
+      <c r="M103" s="77"/>
+      <c r="N103" s="77"/>
+      <c r="O103" s="77"/>
+      <c r="P103" s="77"/>
+      <c r="Q103" s="77"/>
+      <c r="R103" s="77"/>
+      <c r="S103" s="77"/>
+      <c r="T103" s="77"/>
+      <c r="U103" s="77"/>
+      <c r="V103" s="77"/>
+      <c r="W103" s="77"/>
+      <c r="X103" s="77"/>
+      <c r="Y103" s="77"/>
+      <c r="Z103" s="77"/>
+      <c r="AA103" s="77"/>
+      <c r="AB103" s="77"/>
+      <c r="AC103" s="77"/>
+      <c r="AD103" s="77"/>
+      <c r="AE103" s="77"/>
+      <c r="AF103" s="77"/>
+      <c r="AG103" s="77"/>
+      <c r="AH103" s="77"/>
+      <c r="AI103" s="77"/>
+      <c r="AJ103" s="77"/>
+      <c r="AK103" s="77"/>
+      <c r="AL103" s="77"/>
+      <c r="AM103" s="77"/>
+      <c r="AN103" s="77"/>
+      <c r="AO103" s="77"/>
+      <c r="AP103" s="77"/>
+      <c r="AQ103" s="77"/>
+      <c r="AR103" s="77"/>
+      <c r="AS103" s="77"/>
+      <c r="AT103" s="77"/>
+      <c r="AU103" s="77"/>
+      <c r="AV103" s="77"/>
+      <c r="AW103" s="77"/>
+      <c r="AX103" s="77"/>
+      <c r="AY103" s="77"/>
+      <c r="AZ103" s="77"/>
+      <c r="BA103" s="77"/>
+      <c r="BB103" s="77"/>
+      <c r="BC103" s="77"/>
+      <c r="BD103" s="77"/>
+      <c r="BE103" s="77"/>
+      <c r="BF103" s="77"/>
+      <c r="BG103" s="77"/>
+      <c r="BH103" s="77"/>
+      <c r="BI103" s="77"/>
+      <c r="BJ103" s="77"/>
+      <c r="BK103" s="77"/>
+      <c r="BL103" s="77"/>
+      <c r="BM103" s="77"/>
+      <c r="BN103" s="77"/>
+      <c r="BO103" s="77"/>
+      <c r="BP103" s="77"/>
+      <c r="BQ103" s="77"/>
+      <c r="BR103" s="77"/>
+      <c r="BS103" s="77"/>
     </row>
     <row r="104" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C104" s="74"/>
-      <c r="D104" s="74"/>
-      <c r="E104" s="74"/>
-      <c r="F104" s="74"/>
-      <c r="G104" s="74"/>
-      <c r="H104" s="74"/>
-      <c r="I104" s="74"/>
-      <c r="J104" s="74"/>
-      <c r="K104" s="74"/>
-      <c r="L104" s="74"/>
-      <c r="M104" s="74"/>
-      <c r="N104" s="74"/>
-      <c r="O104" s="74"/>
-      <c r="P104" s="74"/>
-      <c r="Q104" s="74"/>
-      <c r="R104" s="74"/>
-      <c r="S104" s="74"/>
-      <c r="T104" s="74"/>
-      <c r="U104" s="74"/>
-      <c r="V104" s="74"/>
-      <c r="W104" s="74"/>
-      <c r="X104" s="74"/>
-      <c r="Y104" s="74"/>
-      <c r="Z104" s="74"/>
-      <c r="AA104" s="74"/>
-      <c r="AB104" s="74"/>
-      <c r="AC104" s="74"/>
-      <c r="AD104" s="74"/>
-      <c r="AE104" s="74"/>
-      <c r="AF104" s="74"/>
-      <c r="AG104" s="74"/>
-      <c r="AH104" s="74"/>
-      <c r="AI104" s="74"/>
-      <c r="AJ104" s="74"/>
-      <c r="AK104" s="74"/>
-      <c r="AL104" s="74"/>
-      <c r="AM104" s="74"/>
-      <c r="AN104" s="74"/>
-      <c r="AO104" s="74"/>
-      <c r="AP104" s="74"/>
-      <c r="AQ104" s="74"/>
-      <c r="AR104" s="74"/>
-      <c r="AS104" s="74"/>
-      <c r="AT104" s="74"/>
-      <c r="AU104" s="74"/>
-      <c r="AV104" s="74"/>
-      <c r="AW104" s="74"/>
-      <c r="AX104" s="74"/>
-      <c r="AY104" s="74"/>
-      <c r="AZ104" s="74"/>
-      <c r="BA104" s="74"/>
-      <c r="BB104" s="74"/>
-      <c r="BC104" s="74"/>
-      <c r="BD104" s="74"/>
-      <c r="BE104" s="74"/>
-      <c r="BF104" s="74"/>
-      <c r="BG104" s="74"/>
-      <c r="BH104" s="74"/>
-      <c r="BI104" s="74"/>
-      <c r="BJ104" s="74"/>
-      <c r="BK104" s="74"/>
-      <c r="BL104" s="74"/>
-      <c r="BM104" s="74"/>
-      <c r="BN104" s="74"/>
-      <c r="BO104" s="74"/>
-      <c r="BP104" s="74"/>
-      <c r="BQ104" s="74"/>
-      <c r="BR104" s="74"/>
-      <c r="BS104" s="74"/>
+        <v>228</v>
+      </c>
+      <c r="C104" s="77"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="77"/>
+      <c r="F104" s="77"/>
+      <c r="G104" s="77"/>
+      <c r="H104" s="77"/>
+      <c r="I104" s="77"/>
+      <c r="J104" s="77"/>
+      <c r="K104" s="77"/>
+      <c r="L104" s="77"/>
+      <c r="M104" s="77"/>
+      <c r="N104" s="77"/>
+      <c r="O104" s="77"/>
+      <c r="P104" s="77"/>
+      <c r="Q104" s="77"/>
+      <c r="R104" s="77"/>
+      <c r="S104" s="77"/>
+      <c r="T104" s="77"/>
+      <c r="U104" s="77"/>
+      <c r="V104" s="77"/>
+      <c r="W104" s="77"/>
+      <c r="X104" s="77"/>
+      <c r="Y104" s="77"/>
+      <c r="Z104" s="77"/>
+      <c r="AA104" s="77"/>
+      <c r="AB104" s="77"/>
+      <c r="AC104" s="77"/>
+      <c r="AD104" s="77"/>
+      <c r="AE104" s="77"/>
+      <c r="AF104" s="77"/>
+      <c r="AG104" s="77"/>
+      <c r="AH104" s="77"/>
+      <c r="AI104" s="77"/>
+      <c r="AJ104" s="77"/>
+      <c r="AK104" s="77"/>
+      <c r="AL104" s="77"/>
+      <c r="AM104" s="77"/>
+      <c r="AN104" s="77"/>
+      <c r="AO104" s="77"/>
+      <c r="AP104" s="77"/>
+      <c r="AQ104" s="77"/>
+      <c r="AR104" s="77"/>
+      <c r="AS104" s="77"/>
+      <c r="AT104" s="77"/>
+      <c r="AU104" s="77"/>
+      <c r="AV104" s="77"/>
+      <c r="AW104" s="77"/>
+      <c r="AX104" s="77"/>
+      <c r="AY104" s="77"/>
+      <c r="AZ104" s="77"/>
+      <c r="BA104" s="77"/>
+      <c r="BB104" s="77"/>
+      <c r="BC104" s="77"/>
+      <c r="BD104" s="77"/>
+      <c r="BE104" s="77"/>
+      <c r="BF104" s="77"/>
+      <c r="BG104" s="77"/>
+      <c r="BH104" s="77"/>
+      <c r="BI104" s="77"/>
+      <c r="BJ104" s="77"/>
+      <c r="BK104" s="77"/>
+      <c r="BL104" s="77"/>
+      <c r="BM104" s="77"/>
+      <c r="BN104" s="77"/>
+      <c r="BO104" s="77"/>
+      <c r="BP104" s="77"/>
+      <c r="BQ104" s="77"/>
+      <c r="BR104" s="77"/>
+      <c r="BS104" s="77"/>
     </row>
     <row r="105" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="C105" s="74"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="74"/>
-      <c r="F105" s="74"/>
-      <c r="G105" s="74"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="74"/>
-      <c r="J105" s="74"/>
-      <c r="K105" s="74"/>
-      <c r="L105" s="74"/>
-      <c r="M105" s="74"/>
-      <c r="N105" s="74"/>
-      <c r="O105" s="74"/>
-      <c r="P105" s="74"/>
-      <c r="Q105" s="74"/>
-      <c r="R105" s="74"/>
-      <c r="S105" s="74"/>
-      <c r="T105" s="74"/>
-      <c r="U105" s="74"/>
-      <c r="V105" s="74"/>
-      <c r="W105" s="74"/>
-      <c r="X105" s="74"/>
-      <c r="Y105" s="74"/>
-      <c r="Z105" s="74"/>
-      <c r="AA105" s="74"/>
-      <c r="AB105" s="74"/>
-      <c r="AC105" s="74"/>
-      <c r="AD105" s="74"/>
-      <c r="AE105" s="74"/>
-      <c r="AF105" s="74"/>
-      <c r="AG105" s="74"/>
-      <c r="AH105" s="74"/>
-      <c r="AI105" s="74"/>
-      <c r="AJ105" s="74"/>
-      <c r="AK105" s="74"/>
-      <c r="AL105" s="74"/>
-      <c r="AM105" s="74"/>
-      <c r="AN105" s="74"/>
-      <c r="AO105" s="74"/>
-      <c r="AP105" s="74"/>
-      <c r="AQ105" s="74"/>
-      <c r="AR105" s="74"/>
-      <c r="AS105" s="74"/>
-      <c r="AT105" s="74"/>
-      <c r="AU105" s="74"/>
-      <c r="AV105" s="74"/>
-      <c r="AW105" s="74"/>
-      <c r="AX105" s="74"/>
-      <c r="AY105" s="74"/>
-      <c r="AZ105" s="74"/>
-      <c r="BA105" s="74"/>
-      <c r="BB105" s="74"/>
-      <c r="BC105" s="74"/>
-      <c r="BD105" s="74"/>
-      <c r="BE105" s="74"/>
-      <c r="BF105" s="74"/>
-      <c r="BG105" s="74"/>
-      <c r="BH105" s="74"/>
-      <c r="BI105" s="74"/>
-      <c r="BJ105" s="74"/>
-      <c r="BK105" s="74"/>
-      <c r="BL105" s="74"/>
-      <c r="BM105" s="74"/>
-      <c r="BN105" s="74"/>
-      <c r="BO105" s="74"/>
-      <c r="BP105" s="74"/>
-      <c r="BQ105" s="74"/>
-      <c r="BR105" s="74"/>
-      <c r="BS105" s="74"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="77"/>
+      <c r="G105" s="77"/>
+      <c r="H105" s="77"/>
+      <c r="I105" s="77"/>
+      <c r="J105" s="77"/>
+      <c r="K105" s="77"/>
+      <c r="L105" s="77"/>
+      <c r="M105" s="77"/>
+      <c r="N105" s="77"/>
+      <c r="O105" s="77"/>
+      <c r="P105" s="77"/>
+      <c r="Q105" s="77"/>
+      <c r="R105" s="77"/>
+      <c r="S105" s="77"/>
+      <c r="T105" s="77"/>
+      <c r="U105" s="77"/>
+      <c r="V105" s="77"/>
+      <c r="W105" s="77"/>
+      <c r="X105" s="77"/>
+      <c r="Y105" s="77"/>
+      <c r="Z105" s="77"/>
+      <c r="AA105" s="77"/>
+      <c r="AB105" s="77"/>
+      <c r="AC105" s="77"/>
+      <c r="AD105" s="77"/>
+      <c r="AE105" s="77"/>
+      <c r="AF105" s="77"/>
+      <c r="AG105" s="77"/>
+      <c r="AH105" s="77"/>
+      <c r="AI105" s="77"/>
+      <c r="AJ105" s="77"/>
+      <c r="AK105" s="77"/>
+      <c r="AL105" s="77"/>
+      <c r="AM105" s="77"/>
+      <c r="AN105" s="77"/>
+      <c r="AO105" s="77"/>
+      <c r="AP105" s="77"/>
+      <c r="AQ105" s="77"/>
+      <c r="AR105" s="77"/>
+      <c r="AS105" s="77"/>
+      <c r="AT105" s="77"/>
+      <c r="AU105" s="77"/>
+      <c r="AV105" s="77"/>
+      <c r="AW105" s="77"/>
+      <c r="AX105" s="77"/>
+      <c r="AY105" s="77"/>
+      <c r="AZ105" s="77"/>
+      <c r="BA105" s="77"/>
+      <c r="BB105" s="77"/>
+      <c r="BC105" s="77"/>
+      <c r="BD105" s="77"/>
+      <c r="BE105" s="77"/>
+      <c r="BF105" s="77"/>
+      <c r="BG105" s="77"/>
+      <c r="BH105" s="77"/>
+      <c r="BI105" s="77"/>
+      <c r="BJ105" s="77"/>
+      <c r="BK105" s="77"/>
+      <c r="BL105" s="77"/>
+      <c r="BM105" s="77"/>
+      <c r="BN105" s="77"/>
+      <c r="BO105" s="77"/>
+      <c r="BP105" s="77"/>
+      <c r="BQ105" s="77"/>
+      <c r="BR105" s="77"/>
+      <c r="BS105" s="77"/>
     </row>
     <row r="106" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="C106" s="74"/>
-      <c r="D106" s="74"/>
-      <c r="E106" s="74"/>
-      <c r="F106" s="74"/>
-      <c r="G106" s="74"/>
-      <c r="H106" s="74"/>
-      <c r="I106" s="74"/>
-      <c r="J106" s="74"/>
-      <c r="K106" s="74"/>
-      <c r="L106" s="74"/>
-      <c r="M106" s="74"/>
-      <c r="N106" s="74"/>
-      <c r="O106" s="74"/>
-      <c r="P106" s="74"/>
-      <c r="Q106" s="74"/>
-      <c r="R106" s="74"/>
-      <c r="S106" s="74"/>
-      <c r="T106" s="74"/>
-      <c r="U106" s="74"/>
-      <c r="V106" s="74"/>
-      <c r="W106" s="74"/>
-      <c r="X106" s="74"/>
-      <c r="Y106" s="74"/>
-      <c r="Z106" s="74"/>
-      <c r="AA106" s="74"/>
-      <c r="AB106" s="74"/>
-      <c r="AC106" s="74"/>
-      <c r="AD106" s="74"/>
-      <c r="AE106" s="74"/>
-      <c r="AF106" s="74"/>
-      <c r="AG106" s="74"/>
-      <c r="AH106" s="74"/>
-      <c r="AI106" s="74"/>
-      <c r="AJ106" s="74"/>
-      <c r="AK106" s="74"/>
-      <c r="AL106" s="74"/>
-      <c r="AM106" s="74"/>
-      <c r="AN106" s="74"/>
-      <c r="AO106" s="74"/>
-      <c r="AP106" s="74"/>
-      <c r="AQ106" s="74"/>
-      <c r="AR106" s="74"/>
-      <c r="AS106" s="74"/>
-      <c r="AT106" s="74"/>
-      <c r="AU106" s="74"/>
-      <c r="AV106" s="74"/>
-      <c r="AW106" s="74"/>
-      <c r="AX106" s="74"/>
-      <c r="AY106" s="74"/>
-      <c r="AZ106" s="74"/>
-      <c r="BA106" s="74"/>
-      <c r="BB106" s="74"/>
-      <c r="BC106" s="74"/>
-      <c r="BD106" s="74"/>
-      <c r="BE106" s="74"/>
-      <c r="BF106" s="74"/>
-      <c r="BG106" s="74"/>
-      <c r="BH106" s="74"/>
-      <c r="BI106" s="74"/>
-      <c r="BJ106" s="74"/>
-      <c r="BK106" s="74"/>
-      <c r="BL106" s="74"/>
-      <c r="BM106" s="74"/>
-      <c r="BN106" s="74"/>
-      <c r="BO106" s="74"/>
-      <c r="BP106" s="74"/>
-      <c r="BQ106" s="74"/>
-      <c r="BR106" s="74"/>
-      <c r="BS106" s="74"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="77"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="77"/>
+      <c r="H106" s="77"/>
+      <c r="I106" s="77"/>
+      <c r="J106" s="77"/>
+      <c r="K106" s="77"/>
+      <c r="L106" s="77"/>
+      <c r="M106" s="77"/>
+      <c r="N106" s="77"/>
+      <c r="O106" s="77"/>
+      <c r="P106" s="77"/>
+      <c r="Q106" s="77"/>
+      <c r="R106" s="77"/>
+      <c r="S106" s="77"/>
+      <c r="T106" s="77"/>
+      <c r="U106" s="77"/>
+      <c r="V106" s="77"/>
+      <c r="W106" s="77"/>
+      <c r="X106" s="77"/>
+      <c r="Y106" s="77"/>
+      <c r="Z106" s="77"/>
+      <c r="AA106" s="77"/>
+      <c r="AB106" s="77"/>
+      <c r="AC106" s="77"/>
+      <c r="AD106" s="77"/>
+      <c r="AE106" s="77"/>
+      <c r="AF106" s="77"/>
+      <c r="AG106" s="77"/>
+      <c r="AH106" s="77"/>
+      <c r="AI106" s="77"/>
+      <c r="AJ106" s="77"/>
+      <c r="AK106" s="77"/>
+      <c r="AL106" s="77"/>
+      <c r="AM106" s="77"/>
+      <c r="AN106" s="77"/>
+      <c r="AO106" s="77"/>
+      <c r="AP106" s="77"/>
+      <c r="AQ106" s="77"/>
+      <c r="AR106" s="77"/>
+      <c r="AS106" s="77"/>
+      <c r="AT106" s="77"/>
+      <c r="AU106" s="77"/>
+      <c r="AV106" s="77"/>
+      <c r="AW106" s="77"/>
+      <c r="AX106" s="77"/>
+      <c r="AY106" s="77"/>
+      <c r="AZ106" s="77"/>
+      <c r="BA106" s="77"/>
+      <c r="BB106" s="77"/>
+      <c r="BC106" s="77"/>
+      <c r="BD106" s="77"/>
+      <c r="BE106" s="77"/>
+      <c r="BF106" s="77"/>
+      <c r="BG106" s="77"/>
+      <c r="BH106" s="77"/>
+      <c r="BI106" s="77"/>
+      <c r="BJ106" s="77"/>
+      <c r="BK106" s="77"/>
+      <c r="BL106" s="77"/>
+      <c r="BM106" s="77"/>
+      <c r="BN106" s="77"/>
+      <c r="BO106" s="77"/>
+      <c r="BP106" s="77"/>
+      <c r="BQ106" s="77"/>
+      <c r="BR106" s="77"/>
+      <c r="BS106" s="77"/>
     </row>
     <row r="107" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="75" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="74"/>
-      <c r="D107" s="74"/>
-      <c r="E107" s="74"/>
-      <c r="F107" s="74"/>
-      <c r="G107" s="74"/>
-      <c r="H107" s="74"/>
-      <c r="I107" s="74"/>
-      <c r="J107" s="74"/>
-      <c r="K107" s="74"/>
-      <c r="L107" s="74"/>
-      <c r="M107" s="74"/>
-      <c r="N107" s="74"/>
-      <c r="O107" s="74"/>
-      <c r="P107" s="74"/>
-      <c r="Q107" s="74"/>
-      <c r="R107" s="74"/>
-      <c r="S107" s="74"/>
-      <c r="T107" s="74"/>
-      <c r="U107" s="74"/>
-      <c r="V107" s="74"/>
-      <c r="W107" s="74"/>
-      <c r="X107" s="74"/>
-      <c r="Y107" s="74"/>
-      <c r="Z107" s="74"/>
-      <c r="AA107" s="74"/>
-      <c r="AB107" s="74"/>
-      <c r="AC107" s="74"/>
-      <c r="AD107" s="74"/>
-      <c r="AE107" s="74"/>
-      <c r="AF107" s="74"/>
-      <c r="AG107" s="74"/>
-      <c r="AH107" s="74"/>
-      <c r="AI107" s="74"/>
-      <c r="AJ107" s="74"/>
-      <c r="AK107" s="74"/>
-      <c r="AL107" s="74"/>
-      <c r="AM107" s="74"/>
-      <c r="AN107" s="74"/>
-      <c r="AO107" s="74"/>
-      <c r="AP107" s="74"/>
-      <c r="AQ107" s="74"/>
-      <c r="AR107" s="74"/>
-      <c r="AS107" s="74"/>
-      <c r="AT107" s="74"/>
-      <c r="AU107" s="74"/>
-      <c r="AV107" s="74"/>
-      <c r="AW107" s="74"/>
-      <c r="AX107" s="74"/>
-      <c r="AY107" s="74"/>
-      <c r="AZ107" s="74"/>
-      <c r="BA107" s="74"/>
-      <c r="BB107" s="74"/>
-      <c r="BC107" s="74"/>
-      <c r="BD107" s="74"/>
-      <c r="BE107" s="74"/>
-      <c r="BF107" s="74"/>
-      <c r="BG107" s="74"/>
-      <c r="BH107" s="74"/>
-      <c r="BI107" s="74"/>
-      <c r="BJ107" s="74"/>
-      <c r="BK107" s="74"/>
-      <c r="BL107" s="74"/>
-      <c r="BM107" s="74"/>
-      <c r="BN107" s="74"/>
-      <c r="BO107" s="74"/>
-      <c r="BP107" s="74"/>
-      <c r="BQ107" s="74"/>
-      <c r="BR107" s="74"/>
-      <c r="BS107" s="74"/>
+      <c r="B107" s="78" t="s">
+        <v>229</v>
+      </c>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="77"/>
+      <c r="G107" s="77"/>
+      <c r="H107" s="77"/>
+      <c r="I107" s="77"/>
+      <c r="J107" s="77"/>
+      <c r="K107" s="77"/>
+      <c r="L107" s="77"/>
+      <c r="M107" s="77"/>
+      <c r="N107" s="77"/>
+      <c r="O107" s="77"/>
+      <c r="P107" s="77"/>
+      <c r="Q107" s="77"/>
+      <c r="R107" s="77"/>
+      <c r="S107" s="77"/>
+      <c r="T107" s="77"/>
+      <c r="U107" s="77"/>
+      <c r="V107" s="77"/>
+      <c r="W107" s="77"/>
+      <c r="X107" s="77"/>
+      <c r="Y107" s="77"/>
+      <c r="Z107" s="77"/>
+      <c r="AA107" s="77"/>
+      <c r="AB107" s="77"/>
+      <c r="AC107" s="77"/>
+      <c r="AD107" s="77"/>
+      <c r="AE107" s="77"/>
+      <c r="AF107" s="77"/>
+      <c r="AG107" s="77"/>
+      <c r="AH107" s="77"/>
+      <c r="AI107" s="77"/>
+      <c r="AJ107" s="77"/>
+      <c r="AK107" s="77"/>
+      <c r="AL107" s="77"/>
+      <c r="AM107" s="77"/>
+      <c r="AN107" s="77"/>
+      <c r="AO107" s="77"/>
+      <c r="AP107" s="77"/>
+      <c r="AQ107" s="77"/>
+      <c r="AR107" s="77"/>
+      <c r="AS107" s="77"/>
+      <c r="AT107" s="77"/>
+      <c r="AU107" s="77"/>
+      <c r="AV107" s="77"/>
+      <c r="AW107" s="77"/>
+      <c r="AX107" s="77"/>
+      <c r="AY107" s="77"/>
+      <c r="AZ107" s="77"/>
+      <c r="BA107" s="77"/>
+      <c r="BB107" s="77"/>
+      <c r="BC107" s="77"/>
+      <c r="BD107" s="77"/>
+      <c r="BE107" s="77"/>
+      <c r="BF107" s="77"/>
+      <c r="BG107" s="77"/>
+      <c r="BH107" s="77"/>
+      <c r="BI107" s="77"/>
+      <c r="BJ107" s="77"/>
+      <c r="BK107" s="77"/>
+      <c r="BL107" s="77"/>
+      <c r="BM107" s="77"/>
+      <c r="BN107" s="77"/>
+      <c r="BO107" s="77"/>
+      <c r="BP107" s="77"/>
+      <c r="BQ107" s="77"/>
+      <c r="BR107" s="77"/>
+      <c r="BS107" s="77"/>
     </row>
     <row r="108" spans="1:71" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="75"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="74"/>
-      <c r="E108" s="74"/>
-      <c r="F108" s="74"/>
-      <c r="G108" s="74"/>
-      <c r="H108" s="74"/>
-      <c r="I108" s="74"/>
-      <c r="J108" s="74"/>
-      <c r="K108" s="74"/>
-      <c r="L108" s="74"/>
-      <c r="M108" s="74"/>
-      <c r="N108" s="74"/>
-      <c r="O108" s="74"/>
-      <c r="P108" s="74"/>
-      <c r="Q108" s="74"/>
-      <c r="R108" s="74"/>
-      <c r="S108" s="74"/>
-      <c r="T108" s="74"/>
-      <c r="U108" s="74"/>
-      <c r="V108" s="74"/>
-      <c r="W108" s="74"/>
-      <c r="X108" s="74"/>
-      <c r="Y108" s="74"/>
-      <c r="Z108" s="74"/>
-      <c r="AA108" s="74"/>
-      <c r="AB108" s="74"/>
-      <c r="AC108" s="74"/>
-      <c r="AD108" s="74"/>
-      <c r="AE108" s="74"/>
-      <c r="AF108" s="74"/>
-      <c r="AG108" s="74"/>
-      <c r="AH108" s="74"/>
-      <c r="AI108" s="74"/>
-      <c r="AJ108" s="74"/>
-      <c r="AK108" s="74"/>
-      <c r="AL108" s="74"/>
-      <c r="AM108" s="74"/>
-      <c r="AN108" s="74"/>
-      <c r="AO108" s="74"/>
-      <c r="AP108" s="74"/>
-      <c r="AQ108" s="74"/>
-      <c r="AR108" s="74"/>
-      <c r="AS108" s="74"/>
-      <c r="AT108" s="74"/>
-      <c r="AU108" s="74"/>
-      <c r="AV108" s="74"/>
-      <c r="AW108" s="74"/>
-      <c r="AX108" s="74"/>
-      <c r="AY108" s="74"/>
-      <c r="AZ108" s="74"/>
-      <c r="BA108" s="74"/>
-      <c r="BB108" s="74"/>
-      <c r="BC108" s="74"/>
-      <c r="BD108" s="74"/>
-      <c r="BE108" s="74"/>
-      <c r="BF108" s="74"/>
-      <c r="BG108" s="74"/>
-      <c r="BH108" s="74"/>
-      <c r="BI108" s="74"/>
-      <c r="BJ108" s="74"/>
-      <c r="BK108" s="74"/>
-      <c r="BL108" s="74"/>
-      <c r="BM108" s="74"/>
-      <c r="BN108" s="74"/>
-      <c r="BO108" s="74"/>
-      <c r="BP108" s="74"/>
-      <c r="BQ108" s="74"/>
-      <c r="BR108" s="74"/>
-      <c r="BS108" s="74"/>
+      <c r="B108" s="78"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="77"/>
+      <c r="E108" s="77"/>
+      <c r="F108" s="77"/>
+      <c r="G108" s="77"/>
+      <c r="H108" s="77"/>
+      <c r="I108" s="77"/>
+      <c r="J108" s="77"/>
+      <c r="K108" s="77"/>
+      <c r="L108" s="77"/>
+      <c r="M108" s="77"/>
+      <c r="N108" s="77"/>
+      <c r="O108" s="77"/>
+      <c r="P108" s="77"/>
+      <c r="Q108" s="77"/>
+      <c r="R108" s="77"/>
+      <c r="S108" s="77"/>
+      <c r="T108" s="77"/>
+      <c r="U108" s="77"/>
+      <c r="V108" s="77"/>
+      <c r="W108" s="77"/>
+      <c r="X108" s="77"/>
+      <c r="Y108" s="77"/>
+      <c r="Z108" s="77"/>
+      <c r="AA108" s="77"/>
+      <c r="AB108" s="77"/>
+      <c r="AC108" s="77"/>
+      <c r="AD108" s="77"/>
+      <c r="AE108" s="77"/>
+      <c r="AF108" s="77"/>
+      <c r="AG108" s="77"/>
+      <c r="AH108" s="77"/>
+      <c r="AI108" s="77"/>
+      <c r="AJ108" s="77"/>
+      <c r="AK108" s="77"/>
+      <c r="AL108" s="77"/>
+      <c r="AM108" s="77"/>
+      <c r="AN108" s="77"/>
+      <c r="AO108" s="77"/>
+      <c r="AP108" s="77"/>
+      <c r="AQ108" s="77"/>
+      <c r="AR108" s="77"/>
+      <c r="AS108" s="77"/>
+      <c r="AT108" s="77"/>
+      <c r="AU108" s="77"/>
+      <c r="AV108" s="77"/>
+      <c r="AW108" s="77"/>
+      <c r="AX108" s="77"/>
+      <c r="AY108" s="77"/>
+      <c r="AZ108" s="77"/>
+      <c r="BA108" s="77"/>
+      <c r="BB108" s="77"/>
+      <c r="BC108" s="77"/>
+      <c r="BD108" s="77"/>
+      <c r="BE108" s="77"/>
+      <c r="BF108" s="77"/>
+      <c r="BG108" s="77"/>
+      <c r="BH108" s="77"/>
+      <c r="BI108" s="77"/>
+      <c r="BJ108" s="77"/>
+      <c r="BK108" s="77"/>
+      <c r="BL108" s="77"/>
+      <c r="BM108" s="77"/>
+      <c r="BN108" s="77"/>
+      <c r="BO108" s="77"/>
+      <c r="BP108" s="77"/>
+      <c r="BQ108" s="77"/>
+      <c r="BR108" s="77"/>
+      <c r="BS108" s="77"/>
     </row>
     <row r="109" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" s="74"/>
-      <c r="D109" s="74"/>
-      <c r="E109" s="74"/>
-      <c r="F109" s="74"/>
-      <c r="G109" s="74"/>
-      <c r="H109" s="74"/>
-      <c r="I109" s="74"/>
-      <c r="J109" s="74"/>
-      <c r="K109" s="74"/>
-      <c r="L109" s="74"/>
-      <c r="M109" s="74"/>
-      <c r="N109" s="74"/>
-      <c r="O109" s="74"/>
-      <c r="P109" s="74"/>
-      <c r="Q109" s="74"/>
-      <c r="R109" s="74"/>
-      <c r="S109" s="74"/>
-      <c r="T109" s="74"/>
-      <c r="U109" s="74"/>
-      <c r="V109" s="74"/>
-      <c r="W109" s="74"/>
-      <c r="X109" s="74"/>
-      <c r="Y109" s="74"/>
-      <c r="Z109" s="74"/>
-      <c r="AA109" s="74"/>
-      <c r="AB109" s="74"/>
-      <c r="AC109" s="74"/>
-      <c r="AD109" s="74"/>
-      <c r="AE109" s="74"/>
-      <c r="AF109" s="74"/>
-      <c r="AG109" s="74"/>
-      <c r="AH109" s="74"/>
-      <c r="AI109" s="74"/>
-      <c r="AJ109" s="74"/>
-      <c r="AK109" s="74"/>
-      <c r="AL109" s="74"/>
-      <c r="AM109" s="74"/>
-      <c r="AN109" s="74"/>
-      <c r="AO109" s="74"/>
-      <c r="AP109" s="74"/>
-      <c r="AQ109" s="74"/>
-      <c r="AR109" s="74"/>
-      <c r="AS109" s="74"/>
-      <c r="AT109" s="74"/>
-      <c r="AU109" s="74"/>
-      <c r="AV109" s="74"/>
-      <c r="AW109" s="74"/>
-      <c r="AX109" s="74"/>
-      <c r="AY109" s="74"/>
-      <c r="AZ109" s="74"/>
-      <c r="BA109" s="74"/>
-      <c r="BB109" s="74"/>
-      <c r="BC109" s="74"/>
-      <c r="BD109" s="74"/>
-      <c r="BE109" s="74"/>
-      <c r="BF109" s="74"/>
-      <c r="BG109" s="74"/>
-      <c r="BH109" s="74"/>
-      <c r="BI109" s="74"/>
-      <c r="BJ109" s="74"/>
-      <c r="BK109" s="74"/>
-      <c r="BL109" s="74"/>
-      <c r="BM109" s="74"/>
-      <c r="BN109" s="74"/>
-      <c r="BO109" s="74"/>
-      <c r="BP109" s="74"/>
-      <c r="BQ109" s="74"/>
-      <c r="BR109" s="74"/>
-      <c r="BS109" s="74"/>
+        <v>231</v>
+      </c>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="77"/>
+      <c r="G109" s="77"/>
+      <c r="H109" s="77"/>
+      <c r="I109" s="77"/>
+      <c r="J109" s="77"/>
+      <c r="K109" s="77"/>
+      <c r="L109" s="77"/>
+      <c r="M109" s="77"/>
+      <c r="N109" s="77"/>
+      <c r="O109" s="77"/>
+      <c r="P109" s="77"/>
+      <c r="Q109" s="77"/>
+      <c r="R109" s="77"/>
+      <c r="S109" s="77"/>
+      <c r="T109" s="77"/>
+      <c r="U109" s="77"/>
+      <c r="V109" s="77"/>
+      <c r="W109" s="77"/>
+      <c r="X109" s="77"/>
+      <c r="Y109" s="77"/>
+      <c r="Z109" s="77"/>
+      <c r="AA109" s="77"/>
+      <c r="AB109" s="77"/>
+      <c r="AC109" s="77"/>
+      <c r="AD109" s="77"/>
+      <c r="AE109" s="77"/>
+      <c r="AF109" s="77"/>
+      <c r="AG109" s="77"/>
+      <c r="AH109" s="77"/>
+      <c r="AI109" s="77"/>
+      <c r="AJ109" s="77"/>
+      <c r="AK109" s="77"/>
+      <c r="AL109" s="77"/>
+      <c r="AM109" s="77"/>
+      <c r="AN109" s="77"/>
+      <c r="AO109" s="77"/>
+      <c r="AP109" s="77"/>
+      <c r="AQ109" s="77"/>
+      <c r="AR109" s="77"/>
+      <c r="AS109" s="77"/>
+      <c r="AT109" s="77"/>
+      <c r="AU109" s="77"/>
+      <c r="AV109" s="77"/>
+      <c r="AW109" s="77"/>
+      <c r="AX109" s="77"/>
+      <c r="AY109" s="77"/>
+      <c r="AZ109" s="77"/>
+      <c r="BA109" s="77"/>
+      <c r="BB109" s="77"/>
+      <c r="BC109" s="77"/>
+      <c r="BD109" s="77"/>
+      <c r="BE109" s="77"/>
+      <c r="BF109" s="77"/>
+      <c r="BG109" s="77"/>
+      <c r="BH109" s="77"/>
+      <c r="BI109" s="77"/>
+      <c r="BJ109" s="77"/>
+      <c r="BK109" s="77"/>
+      <c r="BL109" s="77"/>
+      <c r="BM109" s="77"/>
+      <c r="BN109" s="77"/>
+      <c r="BO109" s="77"/>
+      <c r="BP109" s="77"/>
+      <c r="BQ109" s="77"/>
+      <c r="BR109" s="77"/>
+      <c r="BS109" s="77"/>
     </row>
     <row r="110" spans="1:71" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C110" s="74"/>
-      <c r="D110" s="74"/>
-      <c r="E110" s="74"/>
-      <c r="F110" s="74"/>
-      <c r="G110" s="74"/>
-      <c r="H110" s="74"/>
-      <c r="I110" s="74"/>
-      <c r="J110" s="74"/>
-      <c r="K110" s="74"/>
-      <c r="L110" s="74"/>
-      <c r="M110" s="74"/>
-      <c r="N110" s="74"/>
-      <c r="O110" s="74"/>
-      <c r="P110" s="74"/>
-      <c r="Q110" s="74"/>
-      <c r="R110" s="74"/>
-      <c r="S110" s="74"/>
-      <c r="T110" s="74"/>
-      <c r="U110" s="74"/>
-      <c r="V110" s="74"/>
-      <c r="W110" s="74"/>
-      <c r="X110" s="74"/>
-      <c r="Y110" s="74"/>
-      <c r="Z110" s="74"/>
-      <c r="AA110" s="74"/>
-      <c r="AB110" s="74"/>
-      <c r="AC110" s="74"/>
-      <c r="AD110" s="74"/>
-      <c r="AE110" s="74"/>
-      <c r="AF110" s="74"/>
-      <c r="AG110" s="74"/>
-      <c r="AH110" s="74"/>
-      <c r="AI110" s="74"/>
-      <c r="AJ110" s="74"/>
-      <c r="AK110" s="74"/>
-      <c r="AL110" s="74"/>
-      <c r="AM110" s="74"/>
-      <c r="AN110" s="74"/>
-      <c r="AO110" s="74"/>
-      <c r="AP110" s="74"/>
-      <c r="AQ110" s="74"/>
-      <c r="AR110" s="74"/>
-      <c r="AS110" s="74"/>
-      <c r="AT110" s="74"/>
-      <c r="AU110" s="74"/>
-      <c r="AV110" s="74"/>
-      <c r="AW110" s="74"/>
-      <c r="AX110" s="74"/>
-      <c r="AY110" s="74"/>
-      <c r="AZ110" s="74"/>
-      <c r="BA110" s="74"/>
-      <c r="BB110" s="74"/>
-      <c r="BC110" s="74"/>
-      <c r="BD110" s="74"/>
-      <c r="BE110" s="74"/>
-      <c r="BF110" s="74"/>
-      <c r="BG110" s="74"/>
-      <c r="BH110" s="74"/>
-      <c r="BI110" s="74"/>
-      <c r="BJ110" s="74"/>
-      <c r="BK110" s="74"/>
-      <c r="BL110" s="74"/>
-      <c r="BM110" s="74"/>
-      <c r="BN110" s="74"/>
-      <c r="BO110" s="74"/>
-      <c r="BP110" s="74"/>
-      <c r="BQ110" s="74"/>
-      <c r="BR110" s="74"/>
-      <c r="BS110" s="74"/>
+        <v>232</v>
+      </c>
+      <c r="C110" s="77"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="77"/>
+      <c r="H110" s="77"/>
+      <c r="I110" s="77"/>
+      <c r="J110" s="77"/>
+      <c r="K110" s="77"/>
+      <c r="L110" s="77"/>
+      <c r="M110" s="77"/>
+      <c r="N110" s="77"/>
+      <c r="O110" s="77"/>
+      <c r="P110" s="77"/>
+      <c r="Q110" s="77"/>
+      <c r="R110" s="77"/>
+      <c r="S110" s="77"/>
+      <c r="T110" s="77"/>
+      <c r="U110" s="77"/>
+      <c r="V110" s="77"/>
+      <c r="W110" s="77"/>
+      <c r="X110" s="77"/>
+      <c r="Y110" s="77"/>
+      <c r="Z110" s="77"/>
+      <c r="AA110" s="77"/>
+      <c r="AB110" s="77"/>
+      <c r="AC110" s="77"/>
+      <c r="AD110" s="77"/>
+      <c r="AE110" s="77"/>
+      <c r="AF110" s="77"/>
+      <c r="AG110" s="77"/>
+      <c r="AH110" s="77"/>
+      <c r="AI110" s="77"/>
+      <c r="AJ110" s="77"/>
+      <c r="AK110" s="77"/>
+      <c r="AL110" s="77"/>
+      <c r="AM110" s="77"/>
+      <c r="AN110" s="77"/>
+      <c r="AO110" s="77"/>
+      <c r="AP110" s="77"/>
+      <c r="AQ110" s="77"/>
+      <c r="AR110" s="77"/>
+      <c r="AS110" s="77"/>
+      <c r="AT110" s="77"/>
+      <c r="AU110" s="77"/>
+      <c r="AV110" s="77"/>
+      <c r="AW110" s="77"/>
+      <c r="AX110" s="77"/>
+      <c r="AY110" s="77"/>
+      <c r="AZ110" s="77"/>
+      <c r="BA110" s="77"/>
+      <c r="BB110" s="77"/>
+      <c r="BC110" s="77"/>
+      <c r="BD110" s="77"/>
+      <c r="BE110" s="77"/>
+      <c r="BF110" s="77"/>
+      <c r="BG110" s="77"/>
+      <c r="BH110" s="77"/>
+      <c r="BI110" s="77"/>
+      <c r="BJ110" s="77"/>
+      <c r="BK110" s="77"/>
+      <c r="BL110" s="77"/>
+      <c r="BM110" s="77"/>
+      <c r="BN110" s="77"/>
+      <c r="BO110" s="77"/>
+      <c r="BP110" s="77"/>
+      <c r="BQ110" s="77"/>
+      <c r="BR110" s="77"/>
+      <c r="BS110" s="77"/>
     </row>
     <row r="111" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B111" s="76" t="s">
-        <v>231</v>
-      </c>
-      <c r="C111" s="74"/>
-      <c r="D111" s="74"/>
-      <c r="E111" s="74"/>
-      <c r="F111" s="74"/>
-      <c r="G111" s="74"/>
-      <c r="H111" s="74"/>
-      <c r="I111" s="74"/>
-      <c r="J111" s="74"/>
-      <c r="K111" s="74"/>
-      <c r="L111" s="74"/>
-      <c r="M111" s="74"/>
-      <c r="N111" s="74"/>
-      <c r="O111" s="74"/>
-      <c r="P111" s="74"/>
-      <c r="Q111" s="74"/>
-      <c r="R111" s="74"/>
-      <c r="S111" s="74"/>
-      <c r="T111" s="74"/>
-      <c r="U111" s="74"/>
-      <c r="V111" s="74"/>
-      <c r="W111" s="74"/>
-      <c r="X111" s="74"/>
-      <c r="Y111" s="74"/>
-      <c r="Z111" s="74"/>
-      <c r="AA111" s="74"/>
-      <c r="AB111" s="74"/>
-      <c r="AC111" s="74"/>
-      <c r="AD111" s="74"/>
-      <c r="AE111" s="74"/>
-      <c r="AF111" s="74"/>
-      <c r="AG111" s="74"/>
-      <c r="AH111" s="74"/>
-      <c r="AI111" s="74"/>
-      <c r="AJ111" s="74"/>
-      <c r="AK111" s="74"/>
-      <c r="AL111" s="74"/>
-      <c r="AM111" s="74"/>
-      <c r="AN111" s="74"/>
-      <c r="AO111" s="74"/>
-      <c r="AP111" s="74"/>
-      <c r="AQ111" s="74"/>
-      <c r="AR111" s="74"/>
-      <c r="AS111" s="74"/>
-      <c r="AT111" s="74"/>
-      <c r="AU111" s="74"/>
-      <c r="AV111" s="74"/>
-      <c r="AW111" s="74"/>
-      <c r="AX111" s="74"/>
-      <c r="AY111" s="74"/>
-      <c r="AZ111" s="74"/>
-      <c r="BA111" s="74"/>
-      <c r="BB111" s="74"/>
-      <c r="BC111" s="74"/>
-      <c r="BD111" s="74"/>
-      <c r="BE111" s="74"/>
-      <c r="BF111" s="74"/>
-      <c r="BG111" s="74"/>
-      <c r="BH111" s="74"/>
-      <c r="BI111" s="74"/>
-      <c r="BJ111" s="74"/>
-      <c r="BK111" s="74"/>
-      <c r="BL111" s="74"/>
-      <c r="BM111" s="74"/>
-      <c r="BN111" s="74"/>
-      <c r="BO111" s="74"/>
-      <c r="BP111" s="74"/>
-      <c r="BQ111" s="74"/>
-      <c r="BR111" s="74"/>
-      <c r="BS111" s="74"/>
+      <c r="B111" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="77"/>
+      <c r="G111" s="77"/>
+      <c r="H111" s="77"/>
+      <c r="I111" s="77"/>
+      <c r="J111" s="77"/>
+      <c r="K111" s="77"/>
+      <c r="L111" s="77"/>
+      <c r="M111" s="77"/>
+      <c r="N111" s="77"/>
+      <c r="O111" s="77"/>
+      <c r="P111" s="77"/>
+      <c r="Q111" s="77"/>
+      <c r="R111" s="77"/>
+      <c r="S111" s="77"/>
+      <c r="T111" s="77"/>
+      <c r="U111" s="77"/>
+      <c r="V111" s="77"/>
+      <c r="W111" s="77"/>
+      <c r="X111" s="77"/>
+      <c r="Y111" s="77"/>
+      <c r="Z111" s="77"/>
+      <c r="AA111" s="77"/>
+      <c r="AB111" s="77"/>
+      <c r="AC111" s="77"/>
+      <c r="AD111" s="77"/>
+      <c r="AE111" s="77"/>
+      <c r="AF111" s="77"/>
+      <c r="AG111" s="77"/>
+      <c r="AH111" s="77"/>
+      <c r="AI111" s="77"/>
+      <c r="AJ111" s="77"/>
+      <c r="AK111" s="77"/>
+      <c r="AL111" s="77"/>
+      <c r="AM111" s="77"/>
+      <c r="AN111" s="77"/>
+      <c r="AO111" s="77"/>
+      <c r="AP111" s="77"/>
+      <c r="AQ111" s="77"/>
+      <c r="AR111" s="77"/>
+      <c r="AS111" s="77"/>
+      <c r="AT111" s="77"/>
+      <c r="AU111" s="77"/>
+      <c r="AV111" s="77"/>
+      <c r="AW111" s="77"/>
+      <c r="AX111" s="77"/>
+      <c r="AY111" s="77"/>
+      <c r="AZ111" s="77"/>
+      <c r="BA111" s="77"/>
+      <c r="BB111" s="77"/>
+      <c r="BC111" s="77"/>
+      <c r="BD111" s="77"/>
+      <c r="BE111" s="77"/>
+      <c r="BF111" s="77"/>
+      <c r="BG111" s="77"/>
+      <c r="BH111" s="77"/>
+      <c r="BI111" s="77"/>
+      <c r="BJ111" s="77"/>
+      <c r="BK111" s="77"/>
+      <c r="BL111" s="77"/>
+      <c r="BM111" s="77"/>
+      <c r="BN111" s="77"/>
+      <c r="BO111" s="77"/>
+      <c r="BP111" s="77"/>
+      <c r="BQ111" s="77"/>
+      <c r="BR111" s="77"/>
+      <c r="BS111" s="77"/>
     </row>
     <row r="112" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="B112" s="76" t="s">
-        <v>228</v>
-      </c>
-      <c r="C112" s="74"/>
-      <c r="D112" s="74"/>
-      <c r="E112" s="74"/>
-      <c r="F112" s="74"/>
-      <c r="G112" s="74"/>
-      <c r="H112" s="74"/>
-      <c r="I112" s="74"/>
-      <c r="J112" s="74"/>
-      <c r="K112" s="74"/>
-      <c r="L112" s="74"/>
-      <c r="M112" s="74"/>
-      <c r="N112" s="74"/>
-      <c r="O112" s="74"/>
-      <c r="P112" s="74"/>
-      <c r="Q112" s="74"/>
-      <c r="R112" s="74"/>
-      <c r="S112" s="74"/>
-      <c r="T112" s="74"/>
-      <c r="U112" s="74"/>
-      <c r="V112" s="74"/>
-      <c r="W112" s="74"/>
-      <c r="X112" s="74"/>
-      <c r="Y112" s="74"/>
-      <c r="Z112" s="74"/>
-      <c r="AA112" s="74"/>
-      <c r="AB112" s="74"/>
-      <c r="AC112" s="74"/>
-      <c r="AD112" s="74"/>
-      <c r="AE112" s="74"/>
-      <c r="AF112" s="74"/>
-      <c r="AG112" s="74"/>
-      <c r="AH112" s="74"/>
-      <c r="AI112" s="74"/>
-      <c r="AJ112" s="74"/>
-      <c r="AK112" s="74"/>
-      <c r="AL112" s="74"/>
-      <c r="AM112" s="74"/>
-      <c r="AN112" s="74"/>
-      <c r="AO112" s="74"/>
-      <c r="AP112" s="74"/>
-      <c r="AQ112" s="74"/>
-      <c r="AR112" s="74"/>
-      <c r="AS112" s="74"/>
-      <c r="AT112" s="74"/>
-      <c r="AU112" s="74"/>
-      <c r="AV112" s="74"/>
-      <c r="AW112" s="74"/>
-      <c r="AX112" s="74"/>
-      <c r="AY112" s="74"/>
-      <c r="AZ112" s="74"/>
-      <c r="BA112" s="74"/>
-      <c r="BB112" s="74"/>
-      <c r="BC112" s="74"/>
-      <c r="BD112" s="74"/>
-      <c r="BE112" s="74"/>
-      <c r="BF112" s="74"/>
-      <c r="BG112" s="74"/>
-      <c r="BH112" s="74"/>
-      <c r="BI112" s="74"/>
-      <c r="BJ112" s="74"/>
-      <c r="BK112" s="74"/>
-      <c r="BL112" s="74"/>
-      <c r="BM112" s="74"/>
-      <c r="BN112" s="74"/>
-      <c r="BO112" s="74"/>
-      <c r="BP112" s="74"/>
-      <c r="BQ112" s="74"/>
-      <c r="BR112" s="74"/>
-      <c r="BS112" s="74"/>
+      <c r="B112" s="79" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="77"/>
+      <c r="D112" s="77"/>
+      <c r="E112" s="77"/>
+      <c r="F112" s="77"/>
+      <c r="G112" s="77"/>
+      <c r="H112" s="77"/>
+      <c r="I112" s="77"/>
+      <c r="J112" s="77"/>
+      <c r="K112" s="77"/>
+      <c r="L112" s="77"/>
+      <c r="M112" s="77"/>
+      <c r="N112" s="77"/>
+      <c r="O112" s="77"/>
+      <c r="P112" s="77"/>
+      <c r="Q112" s="77"/>
+      <c r="R112" s="77"/>
+      <c r="S112" s="77"/>
+      <c r="T112" s="77"/>
+      <c r="U112" s="77"/>
+      <c r="V112" s="77"/>
+      <c r="W112" s="77"/>
+      <c r="X112" s="77"/>
+      <c r="Y112" s="77"/>
+      <c r="Z112" s="77"/>
+      <c r="AA112" s="77"/>
+      <c r="AB112" s="77"/>
+      <c r="AC112" s="77"/>
+      <c r="AD112" s="77"/>
+      <c r="AE112" s="77"/>
+      <c r="AF112" s="77"/>
+      <c r="AG112" s="77"/>
+      <c r="AH112" s="77"/>
+      <c r="AI112" s="77"/>
+      <c r="AJ112" s="77"/>
+      <c r="AK112" s="77"/>
+      <c r="AL112" s="77"/>
+      <c r="AM112" s="77"/>
+      <c r="AN112" s="77"/>
+      <c r="AO112" s="77"/>
+      <c r="AP112" s="77"/>
+      <c r="AQ112" s="77"/>
+      <c r="AR112" s="77"/>
+      <c r="AS112" s="77"/>
+      <c r="AT112" s="77"/>
+      <c r="AU112" s="77"/>
+      <c r="AV112" s="77"/>
+      <c r="AW112" s="77"/>
+      <c r="AX112" s="77"/>
+      <c r="AY112" s="77"/>
+      <c r="AZ112" s="77"/>
+      <c r="BA112" s="77"/>
+      <c r="BB112" s="77"/>
+      <c r="BC112" s="77"/>
+      <c r="BD112" s="77"/>
+      <c r="BE112" s="77"/>
+      <c r="BF112" s="77"/>
+      <c r="BG112" s="77"/>
+      <c r="BH112" s="77"/>
+      <c r="BI112" s="77"/>
+      <c r="BJ112" s="77"/>
+      <c r="BK112" s="77"/>
+      <c r="BL112" s="77"/>
+      <c r="BM112" s="77"/>
+      <c r="BN112" s="77"/>
+      <c r="BO112" s="77"/>
+      <c r="BP112" s="77"/>
+      <c r="BQ112" s="77"/>
+      <c r="BR112" s="77"/>
+      <c r="BS112" s="77"/>
     </row>
     <row r="113" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="74"/>
-      <c r="E113" s="74"/>
-      <c r="F113" s="74"/>
-      <c r="G113" s="74"/>
-      <c r="H113" s="74"/>
-      <c r="I113" s="74"/>
-      <c r="J113" s="74"/>
-      <c r="K113" s="74"/>
-      <c r="L113" s="74"/>
-      <c r="M113" s="74"/>
-      <c r="N113" s="74"/>
-      <c r="O113" s="74"/>
-      <c r="P113" s="74"/>
-      <c r="Q113" s="74"/>
-      <c r="R113" s="74"/>
-      <c r="S113" s="74"/>
-      <c r="T113" s="74"/>
-      <c r="U113" s="74"/>
-      <c r="V113" s="74"/>
-      <c r="W113" s="74"/>
-      <c r="X113" s="74"/>
-      <c r="Y113" s="74"/>
-      <c r="Z113" s="74"/>
-      <c r="AA113" s="74"/>
-      <c r="AB113" s="74"/>
-      <c r="AC113" s="74"/>
-      <c r="AD113" s="74"/>
-      <c r="AE113" s="74"/>
-      <c r="AF113" s="74"/>
-      <c r="AG113" s="74"/>
-      <c r="AH113" s="74"/>
-      <c r="AI113" s="74"/>
-      <c r="AJ113" s="74"/>
-      <c r="AK113" s="74"/>
-      <c r="AL113" s="74"/>
-      <c r="AM113" s="74"/>
-      <c r="AN113" s="74"/>
-      <c r="AO113" s="74"/>
-      <c r="AP113" s="74"/>
-      <c r="AQ113" s="74"/>
-      <c r="AR113" s="74"/>
-      <c r="AS113" s="74"/>
-      <c r="AT113" s="74"/>
-      <c r="AU113" s="74"/>
-      <c r="AV113" s="74"/>
-      <c r="AW113" s="74"/>
-      <c r="AX113" s="74"/>
-      <c r="AY113" s="74"/>
-      <c r="AZ113" s="74"/>
-      <c r="BA113" s="74"/>
-      <c r="BB113" s="74"/>
-      <c r="BC113" s="74"/>
-      <c r="BD113" s="74"/>
-      <c r="BE113" s="74"/>
-      <c r="BF113" s="74"/>
-      <c r="BG113" s="74"/>
-      <c r="BH113" s="74"/>
-      <c r="BI113" s="74"/>
-      <c r="BJ113" s="74"/>
-      <c r="BK113" s="74"/>
-      <c r="BL113" s="74"/>
-      <c r="BM113" s="74"/>
-      <c r="BN113" s="74"/>
-      <c r="BO113" s="74"/>
-      <c r="BP113" s="74"/>
-      <c r="BQ113" s="74"/>
-      <c r="BR113" s="74"/>
-      <c r="BS113" s="74"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="77"/>
+      <c r="E113" s="77"/>
+      <c r="F113" s="77"/>
+      <c r="G113" s="77"/>
+      <c r="H113" s="77"/>
+      <c r="I113" s="77"/>
+      <c r="J113" s="77"/>
+      <c r="K113" s="77"/>
+      <c r="L113" s="77"/>
+      <c r="M113" s="77"/>
+      <c r="N113" s="77"/>
+      <c r="O113" s="77"/>
+      <c r="P113" s="77"/>
+      <c r="Q113" s="77"/>
+      <c r="R113" s="77"/>
+      <c r="S113" s="77"/>
+      <c r="T113" s="77"/>
+      <c r="U113" s="77"/>
+      <c r="V113" s="77"/>
+      <c r="W113" s="77"/>
+      <c r="X113" s="77"/>
+      <c r="Y113" s="77"/>
+      <c r="Z113" s="77"/>
+      <c r="AA113" s="77"/>
+      <c r="AB113" s="77"/>
+      <c r="AC113" s="77"/>
+      <c r="AD113" s="77"/>
+      <c r="AE113" s="77"/>
+      <c r="AF113" s="77"/>
+      <c r="AG113" s="77"/>
+      <c r="AH113" s="77"/>
+      <c r="AI113" s="77"/>
+      <c r="AJ113" s="77"/>
+      <c r="AK113" s="77"/>
+      <c r="AL113" s="77"/>
+      <c r="AM113" s="77"/>
+      <c r="AN113" s="77"/>
+      <c r="AO113" s="77"/>
+      <c r="AP113" s="77"/>
+      <c r="AQ113" s="77"/>
+      <c r="AR113" s="77"/>
+      <c r="AS113" s="77"/>
+      <c r="AT113" s="77"/>
+      <c r="AU113" s="77"/>
+      <c r="AV113" s="77"/>
+      <c r="AW113" s="77"/>
+      <c r="AX113" s="77"/>
+      <c r="AY113" s="77"/>
+      <c r="AZ113" s="77"/>
+      <c r="BA113" s="77"/>
+      <c r="BB113" s="77"/>
+      <c r="BC113" s="77"/>
+      <c r="BD113" s="77"/>
+      <c r="BE113" s="77"/>
+      <c r="BF113" s="77"/>
+      <c r="BG113" s="77"/>
+      <c r="BH113" s="77"/>
+      <c r="BI113" s="77"/>
+      <c r="BJ113" s="77"/>
+      <c r="BK113" s="77"/>
+      <c r="BL113" s="77"/>
+      <c r="BM113" s="77"/>
+      <c r="BN113" s="77"/>
+      <c r="BO113" s="77"/>
+      <c r="BP113" s="77"/>
+      <c r="BQ113" s="77"/>
+      <c r="BR113" s="77"/>
+      <c r="BS113" s="77"/>
     </row>
     <row r="114" spans="2:71" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="74"/>
-      <c r="E114" s="74"/>
-      <c r="F114" s="74"/>
-      <c r="G114" s="74"/>
-      <c r="H114" s="74"/>
-      <c r="I114" s="74"/>
-      <c r="J114" s="74"/>
-      <c r="K114" s="74"/>
-      <c r="L114" s="74"/>
-      <c r="M114" s="74"/>
-      <c r="N114" s="74"/>
-      <c r="O114" s="74"/>
-      <c r="P114" s="74"/>
-      <c r="Q114" s="74"/>
-      <c r="R114" s="74"/>
-      <c r="S114" s="74"/>
-      <c r="T114" s="74"/>
-      <c r="U114" s="74"/>
-      <c r="V114" s="74"/>
-      <c r="W114" s="74"/>
-      <c r="X114" s="74"/>
-      <c r="Y114" s="74"/>
-      <c r="Z114" s="74"/>
-      <c r="AA114" s="74"/>
-      <c r="AB114" s="74"/>
-      <c r="AC114" s="74"/>
-      <c r="AD114" s="74"/>
-      <c r="AE114" s="74"/>
-      <c r="AF114" s="74"/>
-      <c r="AG114" s="74"/>
-      <c r="AH114" s="74"/>
-      <c r="AI114" s="74"/>
-      <c r="AJ114" s="74"/>
-      <c r="AK114" s="74"/>
-      <c r="AL114" s="74"/>
-      <c r="AM114" s="74"/>
-      <c r="AN114" s="74"/>
-      <c r="AO114" s="74"/>
-      <c r="AP114" s="74"/>
-      <c r="AQ114" s="74"/>
-      <c r="AR114" s="74"/>
-      <c r="AS114" s="74"/>
-      <c r="AT114" s="74"/>
-      <c r="AU114" s="74"/>
-      <c r="AV114" s="74"/>
-      <c r="AW114" s="74"/>
-      <c r="AX114" s="74"/>
-      <c r="AY114" s="74"/>
-      <c r="AZ114" s="74"/>
-      <c r="BA114" s="74"/>
-      <c r="BB114" s="74"/>
-      <c r="BC114" s="74"/>
-      <c r="BD114" s="74"/>
-      <c r="BE114" s="74"/>
-      <c r="BF114" s="74"/>
-      <c r="BG114" s="74"/>
-      <c r="BH114" s="74"/>
-      <c r="BI114" s="74"/>
-      <c r="BJ114" s="74"/>
-      <c r="BK114" s="74"/>
-      <c r="BL114" s="74"/>
-      <c r="BM114" s="74"/>
-      <c r="BN114" s="74"/>
-      <c r="BO114" s="74"/>
-      <c r="BP114" s="74"/>
-      <c r="BQ114" s="74"/>
-      <c r="BR114" s="74"/>
-      <c r="BS114" s="74"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
+      <c r="AA114" s="77"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="77"/>
+      <c r="AI114" s="77"/>
+      <c r="AJ114" s="77"/>
+      <c r="AK114" s="77"/>
+      <c r="AL114" s="77"/>
+      <c r="AM114" s="77"/>
+      <c r="AN114" s="77"/>
+      <c r="AO114" s="77"/>
+      <c r="AP114" s="77"/>
+      <c r="AQ114" s="77"/>
+      <c r="AR114" s="77"/>
+      <c r="AS114" s="77"/>
+      <c r="AT114" s="77"/>
+      <c r="AU114" s="77"/>
+      <c r="AV114" s="77"/>
+      <c r="AW114" s="77"/>
+      <c r="AX114" s="77"/>
+      <c r="AY114" s="77"/>
+      <c r="AZ114" s="77"/>
+      <c r="BA114" s="77"/>
+      <c r="BB114" s="77"/>
+      <c r="BC114" s="77"/>
+      <c r="BD114" s="77"/>
+      <c r="BE114" s="77"/>
+      <c r="BF114" s="77"/>
+      <c r="BG114" s="77"/>
+      <c r="BH114" s="77"/>
+      <c r="BI114" s="77"/>
+      <c r="BJ114" s="77"/>
+      <c r="BK114" s="77"/>
+      <c r="BL114" s="77"/>
+      <c r="BM114" s="77"/>
+      <c r="BN114" s="77"/>
+      <c r="BO114" s="77"/>
+      <c r="BP114" s="77"/>
+      <c r="BQ114" s="77"/>
+      <c r="BR114" s="77"/>
+      <c r="BS114" s="77"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{B1828179-C3FC-46E7-88C1-21926679570B}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{58192638-08E8-4E26-916E-F625B96160BB}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{C8F952F2-F49D-4328-924A-CE6135EE3E0F}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{2545DC58-B474-4F00-8C8E-F293E3BF4067}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{731F5AE1-A965-43E0-B37F-00C535451751}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{D34949EE-A6D3-4049-A2AA-F7C80C6749BE}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{44D9D42F-093E-43C3-9F25-4BCC07F1FEC7}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{4F6F2977-2FA3-41B4-828F-D68223761009}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{686221BF-6402-4075-9D92-395EDB3CA218}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{6BDDE4CA-DD11-4804-8BC1-D9FCB2879CBD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="54" fitToHeight="0" orientation="portrait" r:id="rId6"/>
